--- a/Code/Results/Cases/Case_2_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_60/res_line/loading_percent.xlsx
@@ -421,7 +421,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>20.73215695675345</v>
+        <v>20.73215695675341</v>
       </c>
       <c r="F2">
         <v>38.67590339559202</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.53124603308641</v>
+        <v>10.5312460330864</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.84763132879922</v>
+        <v>23.8476313287992</v>
       </c>
       <c r="C3">
-        <v>17.83135266123523</v>
+        <v>17.83135266123532</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>19.3137998483938</v>
+        <v>19.31379984839378</v>
       </c>
       <c r="F3">
-        <v>35.81727395800757</v>
+        <v>35.81727395800763</v>
       </c>
       <c r="G3">
         <v>23.39844396470466</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10.12275719520282</v>
+        <v>10.12275719520284</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.66980273206904</v>
+        <v>22.66980273206914</v>
       </c>
       <c r="C4">
-        <v>16.98761499655177</v>
+        <v>16.98761499655183</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>18.40190100723304</v>
+        <v>18.40190100723301</v>
       </c>
       <c r="F4">
-        <v>33.99369785931453</v>
+        <v>33.99369785931462</v>
       </c>
       <c r="G4">
-        <v>22.62653099579163</v>
+        <v>22.62653099579168</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>9.887616809663573</v>
+        <v>9.887616809663587</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.17566809877359</v>
+        <v>22.17566809877368</v>
       </c>
       <c r="C5">
-        <v>16.63398242275811</v>
+        <v>16.63398242275784</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18.0197663932252</v>
+        <v>18.01976639322522</v>
       </c>
       <c r="F5">
-        <v>33.2330503519436</v>
+        <v>33.23305035194365</v>
       </c>
       <c r="G5">
-        <v>22.31619076206112</v>
+        <v>22.31619076206114</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>9.795589113815273</v>
+        <v>9.795589113815257</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.09275356821839</v>
+        <v>22.09275356821844</v>
       </c>
       <c r="C6">
-        <v>16.57466445491092</v>
+        <v>16.57466445491086</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17.95567168325658</v>
+        <v>17.95567168325656</v>
       </c>
       <c r="F6">
         <v>33.10567922701978</v>
       </c>
       <c r="G6">
-        <v>22.2649178286009</v>
+        <v>22.26491782860085</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>9.780532904046172</v>
+        <v>9.780532904046165</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.66319638622224</v>
+        <v>22.66319638622227</v>
       </c>
       <c r="C7">
-        <v>16.98288572683588</v>
+        <v>16.98288572683592</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>18.39679029566015</v>
+        <v>18.39679029566016</v>
       </c>
       <c r="F7">
-        <v>33.98351082492238</v>
+        <v>33.98351082492248</v>
       </c>
       <c r="G7">
-        <v>22.62232838128506</v>
+        <v>22.62232838128507</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>9.88636052147787</v>
+        <v>9.886360521477929</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.05695067255635</v>
+        <v>25.05695067255641</v>
       </c>
       <c r="C8">
-        <v>18.6987622777123</v>
+        <v>18.69876227771231</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>20.25148347792853</v>
+        <v>20.25148347792847</v>
       </c>
       <c r="F8">
-        <v>37.70420251418425</v>
+        <v>37.70420251418435</v>
       </c>
       <c r="G8">
         <v>24.23629746472061</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10.38705476562812</v>
+        <v>10.38705476562814</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.32967497519338</v>
+        <v>29.32967497519333</v>
       </c>
       <c r="C9">
-        <v>21.77160625669218</v>
+        <v>21.77160625669221</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>23.57440967712953</v>
+        <v>23.57440967712957</v>
       </c>
       <c r="F9">
         <v>44.47894250461316</v>
       </c>
       <c r="G9">
-        <v>27.5324771946216</v>
+        <v>27.53247719462152</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>11.50070177581447</v>
+        <v>11.50070177581444</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.23654268009275</v>
+        <v>32.23654268009281</v>
       </c>
       <c r="C10">
-        <v>23.86905616501114</v>
+        <v>23.86905616501106</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>25.8431046874573</v>
+        <v>25.84310468745724</v>
       </c>
       <c r="F10">
-        <v>49.17647386728051</v>
+        <v>49.17647386728055</v>
       </c>
       <c r="G10">
-        <v>30.36612220773852</v>
+        <v>30.36612220773865</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>12.41195609052984</v>
+        <v>12.41195609052987</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -757,25 +757,25 @@
         <v>33.51502597887649</v>
       </c>
       <c r="C11">
-        <v>24.79335629397884</v>
+        <v>24.79335629397881</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>26.84290751516469</v>
+        <v>26.84290751516474</v>
       </c>
       <c r="F11">
-        <v>51.26396134046358</v>
+        <v>51.26396134046354</v>
       </c>
       <c r="G11">
-        <v>31.72261512559138</v>
+        <v>31.72261512559126</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>12.97997418771202</v>
+        <v>12.97997418771195</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.99349552271877</v>
+        <v>33.99349552271865</v>
       </c>
       <c r="C12">
-        <v>25.13957102065853</v>
+        <v>25.13957102065856</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>27.21740197161281</v>
+        <v>27.21740197161277</v>
       </c>
       <c r="F12">
-        <v>52.04850382819905</v>
+        <v>52.04850382819902</v>
       </c>
       <c r="G12">
-        <v>32.2371016302102</v>
+        <v>32.23710163021022</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13.21082769420475</v>
+        <v>13.21082769420476</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.89068902788645</v>
+        <v>33.89068902788653</v>
       </c>
       <c r="C13">
-        <v>25.06516754546723</v>
+        <v>25.06516754546711</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>27.13692119259971</v>
+        <v>27.13692119259981</v>
       </c>
       <c r="F13">
-        <v>51.87978182044532</v>
+        <v>51.87978182044538</v>
       </c>
       <c r="G13">
-        <v>32.12624512485671</v>
+        <v>32.12624512485679</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13.16107502281633</v>
+        <v>13.1610750228164</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.55449939800359</v>
+        <v>33.55449939800343</v>
       </c>
       <c r="C14">
-        <v>24.82191254754786</v>
+        <v>24.82191254754769</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>26.87379638434325</v>
+        <v>26.87379638434334</v>
       </c>
       <c r="F14">
-        <v>51.32861772969198</v>
+        <v>51.32861772969177</v>
       </c>
       <c r="G14">
-        <v>31.76492009830603</v>
+        <v>31.76492009830578</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>12.9989521848573</v>
+        <v>12.99895218485718</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -909,7 +909,7 @@
         <v>33.34785684584278</v>
       </c>
       <c r="C15">
-        <v>24.67243345481225</v>
+        <v>24.67243345481219</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>26.71210700854332</v>
       </c>
       <c r="F15">
-        <v>50.99027833738886</v>
+        <v>50.99027833738889</v>
       </c>
       <c r="G15">
-        <v>31.54373387692956</v>
+        <v>31.54373387692964</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>12.89973624123007</v>
+        <v>12.89973624123014</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.15216069780276</v>
+        <v>32.15216069780271</v>
       </c>
       <c r="C16">
-        <v>23.80809069029991</v>
+        <v>23.8080906902999</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>25.77715936519186</v>
       </c>
       <c r="F16">
-        <v>49.03915127596099</v>
+        <v>49.03915127596093</v>
       </c>
       <c r="G16">
-        <v>30.27753290554094</v>
+        <v>30.27753290554088</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.40783015465255</v>
+        <v>31.40783015465261</v>
       </c>
       <c r="C17">
-        <v>23.27052565610524</v>
+        <v>23.27052565610506</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>25.19568786240243</v>
+        <v>25.19568786240238</v>
       </c>
       <c r="F17">
-        <v>47.83029459050996</v>
+        <v>47.83029459051004</v>
       </c>
       <c r="G17">
-        <v>29.50119821149336</v>
+        <v>29.50119821149347</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>12.13988197691881</v>
+        <v>12.13988197691885</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.97553796205978</v>
+        <v>30.97553796205985</v>
       </c>
       <c r="C18">
-        <v>22.95848954616771</v>
+        <v>22.95848954616778</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>24.85816985843623</v>
+        <v>24.85816985843618</v>
       </c>
       <c r="F18">
-        <v>47.13025628559054</v>
+        <v>47.13025628559049</v>
       </c>
       <c r="G18">
-        <v>29.0545645713356</v>
+        <v>29.05456457133551</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>12.00181676951017</v>
+        <v>12.00181676951014</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.82843663367588</v>
+        <v>30.82843663367599</v>
       </c>
       <c r="C19">
-        <v>22.85233757670209</v>
+        <v>22.85233757670219</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>24.74335009282205</v>
+        <v>24.74335009282202</v>
       </c>
       <c r="F19">
-        <v>46.89239003260523</v>
+        <v>46.89239003260531</v>
       </c>
       <c r="G19">
-        <v>28.9033009000828</v>
+        <v>28.90330090008289</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.48749297287991</v>
+        <v>31.48749297287997</v>
       </c>
       <c r="C20">
-        <v>23.32804130871002</v>
+        <v>23.32804130870994</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>25.25790081874342</v>
       </c>
       <c r="F20">
-        <v>47.95946186853218</v>
+        <v>47.95946186853227</v>
       </c>
       <c r="G20">
-        <v>29.58384578672797</v>
+        <v>29.58384578672809</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>12.16561437687365</v>
+        <v>12.16561437687372</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.65339449217912</v>
+        <v>33.65339449217918</v>
       </c>
       <c r="C21">
-        <v>24.89346111903404</v>
+        <v>24.89346111903403</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>26.95118935180969</v>
+        <v>26.95118935180965</v>
       </c>
       <c r="F21">
         <v>51.49065883651748</v>
       </c>
       <c r="G21">
-        <v>31.87101981272602</v>
+        <v>31.87101981272606</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>13.04655187443643</v>
+        <v>13.04655187443647</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.03630413711262</v>
+        <v>35.03630413711252</v>
       </c>
       <c r="C22">
-        <v>25.89471693713312</v>
+        <v>25.89471693713332</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>28.03422040666417</v>
+        <v>28.03422040666421</v>
       </c>
       <c r="F22">
-        <v>53.76457561476614</v>
+        <v>53.76457561476607</v>
       </c>
       <c r="G22">
-        <v>33.37114092986226</v>
+        <v>33.37114092986212</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.72019003965345</v>
+        <v>13.72019003965339</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.3009622119238</v>
+        <v>34.30096221192382</v>
       </c>
       <c r="C23">
-        <v>25.36213793891115</v>
+        <v>25.36213793891105</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>27.4581475303558</v>
+        <v>27.45814753035575</v>
       </c>
       <c r="F23">
-        <v>52.5535985431532</v>
+        <v>52.55359854315311</v>
       </c>
       <c r="G23">
-        <v>32.56965732786903</v>
+        <v>32.56965732786897</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>13.36011820442033</v>
+        <v>13.3601182044203</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.45149106077489</v>
+        <v>31.451491060775</v>
       </c>
       <c r="C24">
-        <v>23.30204780870972</v>
+        <v>23.30204780870974</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>25.22978441589695</v>
+        <v>25.22978441589694</v>
       </c>
       <c r="F24">
-        <v>47.9010811579213</v>
+        <v>47.9010811579214</v>
       </c>
       <c r="G24">
-        <v>29.54648184144933</v>
+        <v>29.54648184144947</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>12.15397402330269</v>
+        <v>12.1539740233027</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.2165533002596</v>
+        <v>28.2165533002597</v>
       </c>
       <c r="C25">
-        <v>20.96990442407042</v>
+        <v>20.96990442407034</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>22.70733541598615</v>
+        <v>22.70733541598604</v>
       </c>
       <c r="F25">
-        <v>42.69859634939598</v>
+        <v>42.69859634939603</v>
       </c>
       <c r="G25">
-        <v>26.62616004251982</v>
+        <v>26.62616004251987</v>
       </c>
       <c r="H25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_60/res_line/loading_percent.xlsx
@@ -421,7 +421,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>20.73215695675341</v>
+        <v>20.73215695675345</v>
       </c>
       <c r="F2">
         <v>38.67590339559202</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.5312460330864</v>
+        <v>10.53124603308641</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.8476313287992</v>
+        <v>23.84763132879922</v>
       </c>
       <c r="C3">
-        <v>17.83135266123532</v>
+        <v>17.83135266123523</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>19.31379984839378</v>
+        <v>19.3137998483938</v>
       </c>
       <c r="F3">
-        <v>35.81727395800763</v>
+        <v>35.81727395800757</v>
       </c>
       <c r="G3">
         <v>23.39844396470466</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10.12275719520284</v>
+        <v>10.12275719520282</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.66980273206914</v>
+        <v>22.66980273206904</v>
       </c>
       <c r="C4">
-        <v>16.98761499655183</v>
+        <v>16.98761499655177</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>18.40190100723301</v>
+        <v>18.40190100723304</v>
       </c>
       <c r="F4">
-        <v>33.99369785931462</v>
+        <v>33.99369785931453</v>
       </c>
       <c r="G4">
-        <v>22.62653099579168</v>
+        <v>22.62653099579163</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>9.887616809663587</v>
+        <v>9.887616809663573</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.17566809877368</v>
+        <v>22.17566809877359</v>
       </c>
       <c r="C5">
-        <v>16.63398242275784</v>
+        <v>16.63398242275811</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18.01976639322522</v>
+        <v>18.0197663932252</v>
       </c>
       <c r="F5">
-        <v>33.23305035194365</v>
+        <v>33.2330503519436</v>
       </c>
       <c r="G5">
-        <v>22.31619076206114</v>
+        <v>22.31619076206112</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>9.795589113815257</v>
+        <v>9.795589113815273</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.09275356821844</v>
+        <v>22.09275356821839</v>
       </c>
       <c r="C6">
-        <v>16.57466445491086</v>
+        <v>16.57466445491092</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17.95567168325656</v>
+        <v>17.95567168325658</v>
       </c>
       <c r="F6">
         <v>33.10567922701978</v>
       </c>
       <c r="G6">
-        <v>22.26491782860085</v>
+        <v>22.2649178286009</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>9.780532904046165</v>
+        <v>9.780532904046172</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.66319638622227</v>
+        <v>22.66319638622224</v>
       </c>
       <c r="C7">
-        <v>16.98288572683592</v>
+        <v>16.98288572683588</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>18.39679029566016</v>
+        <v>18.39679029566015</v>
       </c>
       <c r="F7">
-        <v>33.98351082492248</v>
+        <v>33.98351082492238</v>
       </c>
       <c r="G7">
-        <v>22.62232838128507</v>
+        <v>22.62232838128506</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>9.886360521477929</v>
+        <v>9.88636052147787</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.05695067255641</v>
+        <v>25.05695067255635</v>
       </c>
       <c r="C8">
-        <v>18.69876227771231</v>
+        <v>18.6987622777123</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>20.25148347792847</v>
+        <v>20.25148347792853</v>
       </c>
       <c r="F8">
-        <v>37.70420251418435</v>
+        <v>37.70420251418425</v>
       </c>
       <c r="G8">
         <v>24.23629746472061</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10.38705476562814</v>
+        <v>10.38705476562812</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.32967497519333</v>
+        <v>29.32967497519338</v>
       </c>
       <c r="C9">
-        <v>21.77160625669221</v>
+        <v>21.77160625669218</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>23.57440967712957</v>
+        <v>23.57440967712953</v>
       </c>
       <c r="F9">
         <v>44.47894250461316</v>
       </c>
       <c r="G9">
-        <v>27.53247719462152</v>
+        <v>27.5324771946216</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>11.50070177581444</v>
+        <v>11.50070177581447</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.23654268009281</v>
+        <v>32.23654268009275</v>
       </c>
       <c r="C10">
-        <v>23.86905616501106</v>
+        <v>23.86905616501114</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>25.84310468745724</v>
+        <v>25.8431046874573</v>
       </c>
       <c r="F10">
-        <v>49.17647386728055</v>
+        <v>49.17647386728051</v>
       </c>
       <c r="G10">
-        <v>30.36612220773865</v>
+        <v>30.36612220773852</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>12.41195609052987</v>
+        <v>12.41195609052984</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -757,25 +757,25 @@
         <v>33.51502597887649</v>
       </c>
       <c r="C11">
-        <v>24.79335629397881</v>
+        <v>24.79335629397884</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>26.84290751516474</v>
+        <v>26.84290751516469</v>
       </c>
       <c r="F11">
-        <v>51.26396134046354</v>
+        <v>51.26396134046358</v>
       </c>
       <c r="G11">
-        <v>31.72261512559126</v>
+        <v>31.72261512559138</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>12.97997418771195</v>
+        <v>12.97997418771202</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.99349552271865</v>
+        <v>33.99349552271877</v>
       </c>
       <c r="C12">
-        <v>25.13957102065856</v>
+        <v>25.13957102065853</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>27.21740197161277</v>
+        <v>27.21740197161281</v>
       </c>
       <c r="F12">
-        <v>52.04850382819902</v>
+        <v>52.04850382819905</v>
       </c>
       <c r="G12">
-        <v>32.23710163021022</v>
+        <v>32.2371016302102</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13.21082769420476</v>
+        <v>13.21082769420475</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.89068902788653</v>
+        <v>33.89068902788645</v>
       </c>
       <c r="C13">
-        <v>25.06516754546711</v>
+        <v>25.06516754546723</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>27.13692119259981</v>
+        <v>27.13692119259971</v>
       </c>
       <c r="F13">
-        <v>51.87978182044538</v>
+        <v>51.87978182044532</v>
       </c>
       <c r="G13">
-        <v>32.12624512485679</v>
+        <v>32.12624512485671</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13.1610750228164</v>
+        <v>13.16107502281633</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.55449939800343</v>
+        <v>33.55449939800359</v>
       </c>
       <c r="C14">
-        <v>24.82191254754769</v>
+        <v>24.82191254754786</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>26.87379638434334</v>
+        <v>26.87379638434325</v>
       </c>
       <c r="F14">
-        <v>51.32861772969177</v>
+        <v>51.32861772969198</v>
       </c>
       <c r="G14">
-        <v>31.76492009830578</v>
+        <v>31.76492009830603</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>12.99895218485718</v>
+        <v>12.9989521848573</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -909,7 +909,7 @@
         <v>33.34785684584278</v>
       </c>
       <c r="C15">
-        <v>24.67243345481219</v>
+        <v>24.67243345481225</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>26.71210700854332</v>
       </c>
       <c r="F15">
-        <v>50.99027833738889</v>
+        <v>50.99027833738886</v>
       </c>
       <c r="G15">
-        <v>31.54373387692964</v>
+        <v>31.54373387692956</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>12.89973624123014</v>
+        <v>12.89973624123007</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.15216069780271</v>
+        <v>32.15216069780276</v>
       </c>
       <c r="C16">
-        <v>23.8080906902999</v>
+        <v>23.80809069029991</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>25.77715936519186</v>
       </c>
       <c r="F16">
-        <v>49.03915127596093</v>
+        <v>49.03915127596099</v>
       </c>
       <c r="G16">
-        <v>30.27753290554088</v>
+        <v>30.27753290554094</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.40783015465261</v>
+        <v>31.40783015465255</v>
       </c>
       <c r="C17">
-        <v>23.27052565610506</v>
+        <v>23.27052565610524</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>25.19568786240238</v>
+        <v>25.19568786240243</v>
       </c>
       <c r="F17">
-        <v>47.83029459051004</v>
+        <v>47.83029459050996</v>
       </c>
       <c r="G17">
-        <v>29.50119821149347</v>
+        <v>29.50119821149336</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>12.13988197691885</v>
+        <v>12.13988197691881</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.97553796205985</v>
+        <v>30.97553796205978</v>
       </c>
       <c r="C18">
-        <v>22.95848954616778</v>
+        <v>22.95848954616771</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>24.85816985843618</v>
+        <v>24.85816985843623</v>
       </c>
       <c r="F18">
-        <v>47.13025628559049</v>
+        <v>47.13025628559054</v>
       </c>
       <c r="G18">
-        <v>29.05456457133551</v>
+        <v>29.0545645713356</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>12.00181676951014</v>
+        <v>12.00181676951017</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.82843663367599</v>
+        <v>30.82843663367588</v>
       </c>
       <c r="C19">
-        <v>22.85233757670219</v>
+        <v>22.85233757670209</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>24.74335009282202</v>
+        <v>24.74335009282205</v>
       </c>
       <c r="F19">
-        <v>46.89239003260531</v>
+        <v>46.89239003260523</v>
       </c>
       <c r="G19">
-        <v>28.90330090008289</v>
+        <v>28.9033009000828</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.48749297287997</v>
+        <v>31.48749297287991</v>
       </c>
       <c r="C20">
-        <v>23.32804130870994</v>
+        <v>23.32804130871002</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>25.25790081874342</v>
       </c>
       <c r="F20">
-        <v>47.95946186853227</v>
+        <v>47.95946186853218</v>
       </c>
       <c r="G20">
-        <v>29.58384578672809</v>
+        <v>29.58384578672797</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>12.16561437687372</v>
+        <v>12.16561437687365</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.65339449217918</v>
+        <v>33.65339449217912</v>
       </c>
       <c r="C21">
-        <v>24.89346111903403</v>
+        <v>24.89346111903404</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>26.95118935180965</v>
+        <v>26.95118935180969</v>
       </c>
       <c r="F21">
         <v>51.49065883651748</v>
       </c>
       <c r="G21">
-        <v>31.87101981272606</v>
+        <v>31.87101981272602</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>13.04655187443647</v>
+        <v>13.04655187443643</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.03630413711252</v>
+        <v>35.03630413711262</v>
       </c>
       <c r="C22">
-        <v>25.89471693713332</v>
+        <v>25.89471693713312</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>28.03422040666421</v>
+        <v>28.03422040666417</v>
       </c>
       <c r="F22">
-        <v>53.76457561476607</v>
+        <v>53.76457561476614</v>
       </c>
       <c r="G22">
-        <v>33.37114092986212</v>
+        <v>33.37114092986226</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.72019003965339</v>
+        <v>13.72019003965345</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.30096221192382</v>
+        <v>34.3009622119238</v>
       </c>
       <c r="C23">
-        <v>25.36213793891105</v>
+        <v>25.36213793891115</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>27.45814753035575</v>
+        <v>27.4581475303558</v>
       </c>
       <c r="F23">
-        <v>52.55359854315311</v>
+        <v>52.5535985431532</v>
       </c>
       <c r="G23">
-        <v>32.56965732786897</v>
+        <v>32.56965732786903</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>13.3601182044203</v>
+        <v>13.36011820442033</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.451491060775</v>
+        <v>31.45149106077489</v>
       </c>
       <c r="C24">
-        <v>23.30204780870974</v>
+        <v>23.30204780870972</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>25.22978441589694</v>
+        <v>25.22978441589695</v>
       </c>
       <c r="F24">
-        <v>47.9010811579214</v>
+        <v>47.9010811579213</v>
       </c>
       <c r="G24">
-        <v>29.54648184144947</v>
+        <v>29.54648184144933</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>12.1539740233027</v>
+        <v>12.15397402330269</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.2165533002597</v>
+        <v>28.2165533002596</v>
       </c>
       <c r="C25">
-        <v>20.96990442407034</v>
+        <v>20.96990442407042</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>22.70733541598604</v>
+        <v>22.70733541598615</v>
       </c>
       <c r="F25">
-        <v>42.69859634939603</v>
+        <v>42.69859634939598</v>
       </c>
       <c r="G25">
-        <v>26.62616004251987</v>
+        <v>26.62616004251982</v>
       </c>
       <c r="H25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_60/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,37 +406,40 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.67620902542225</v>
+        <v>25.67502481790423</v>
       </c>
       <c r="C2">
-        <v>19.14335003143021</v>
+        <v>19.14199279858546</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>20.73215695675345</v>
+        <v>20.74717311804957</v>
       </c>
       <c r="F2">
-        <v>38.67590339559202</v>
+        <v>38.65815704962907</v>
       </c>
       <c r="G2">
-        <v>24.68237674057974</v>
+        <v>24.04182011125739</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>24.69825787284727</v>
       </c>
       <c r="I2">
-        <v>10.53124603308641</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.51517948805075</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -444,37 +447,40 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.84763132879922</v>
+        <v>23.84680510042099</v>
       </c>
       <c r="C3">
-        <v>17.83135266123523</v>
+        <v>17.83037709465268</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>19.3137998483938</v>
+        <v>19.327789596427</v>
       </c>
       <c r="F3">
-        <v>35.81727395800757</v>
+        <v>35.80073991363311</v>
       </c>
       <c r="G3">
-        <v>23.39844396470466</v>
+        <v>22.4856078031134</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>23.41403518731961</v>
       </c>
       <c r="I3">
-        <v>10.12275719520282</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.10803356525426</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -482,37 +488,40 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.66980273206904</v>
+        <v>22.66918530265465</v>
       </c>
       <c r="C4">
-        <v>16.98761499655177</v>
+        <v>16.98687034624333</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>18.40190100723304</v>
+        <v>18.41521568877072</v>
       </c>
       <c r="F4">
-        <v>33.99369785931453</v>
+        <v>33.97792292259366</v>
       </c>
       <c r="G4">
-        <v>22.62653099579163</v>
+        <v>21.52829635758014</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>22.64207577040034</v>
       </c>
       <c r="I4">
-        <v>9.887616809663573</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.873750639703498</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -520,37 +529,40 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.17566809877359</v>
+        <v>22.17513350998113</v>
       </c>
       <c r="C5">
-        <v>16.63398242275811</v>
+        <v>16.63333157948266</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18.0197663932252</v>
+        <v>18.03279462906908</v>
       </c>
       <c r="F5">
-        <v>33.2330503519436</v>
+        <v>33.21758911170639</v>
       </c>
       <c r="G5">
-        <v>22.31619076206112</v>
+        <v>21.13787699430233</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>22.33175010217307</v>
       </c>
       <c r="I5">
-        <v>9.795589113815273</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.782080079390758</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -558,37 +570,40 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.09275356821839</v>
+        <v>22.09223261332003</v>
       </c>
       <c r="C6">
-        <v>16.57466445491092</v>
+        <v>16.57402918657571</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17.95567168325658</v>
+        <v>17.96865166627676</v>
       </c>
       <c r="F6">
-        <v>33.10567922701978</v>
+        <v>33.09027035554433</v>
       </c>
       <c r="G6">
-        <v>22.2649178286009</v>
+        <v>21.07303625882221</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>22.28048161738263</v>
       </c>
       <c r="I6">
-        <v>9.780532904046172</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.767083617436281</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -596,37 +611,40 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.66319638622224</v>
+        <v>22.66258008248276</v>
       </c>
       <c r="C7">
-        <v>16.98288572683588</v>
+        <v>16.98214234210011</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>18.39679029566015</v>
+        <v>18.41010116018609</v>
       </c>
       <c r="F7">
-        <v>33.98351082492238</v>
+        <v>33.96774010042203</v>
       </c>
       <c r="G7">
-        <v>22.62232838128506</v>
+        <v>21.52303198641406</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>22.63787321635017</v>
       </c>
       <c r="I7">
-        <v>9.88636052147787</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.872499137625148</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -634,37 +652,40 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.05695067255635</v>
+        <v>25.05589251473032</v>
       </c>
       <c r="C8">
-        <v>18.6987622777123</v>
+        <v>18.69753770906348</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>20.25148347792853</v>
+        <v>20.26615501142352</v>
       </c>
       <c r="F8">
-        <v>37.70420251418425</v>
+        <v>37.68687153437651</v>
       </c>
       <c r="G8">
-        <v>24.23629746472061</v>
+        <v>23.50565455246048</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>24.25205164762357</v>
       </c>
       <c r="I8">
-        <v>10.38705476562812</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.37144415684263</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -672,37 +693,40 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.32967497519338</v>
+        <v>29.32763524038543</v>
       </c>
       <c r="C9">
-        <v>21.77160625669218</v>
+        <v>21.76938268239394</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>23.57440967712953</v>
+        <v>23.59139397278224</v>
       </c>
       <c r="F9">
-        <v>44.47894250461316</v>
+        <v>44.45863252574893</v>
       </c>
       <c r="G9">
-        <v>27.5324771946216</v>
+        <v>27.40162667116343</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>27.54965788064104</v>
       </c>
       <c r="I9">
-        <v>11.50070177581447</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.48193474585001</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -710,37 +734,40 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.23654268009275</v>
+        <v>32.23366380984328</v>
       </c>
       <c r="C10">
-        <v>23.86905616501114</v>
+        <v>23.86601914552949</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>25.8431046874573</v>
+        <v>25.86156672754392</v>
       </c>
       <c r="F10">
-        <v>49.17647386728051</v>
+        <v>49.15395917720988</v>
       </c>
       <c r="G10">
-        <v>30.36612220773852</v>
+        <v>30.38706915397302</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>30.23250970622788</v>
       </c>
       <c r="I10">
-        <v>12.41195609052984</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>12.39103390143692</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -748,37 +775,40 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.51502597887649</v>
+        <v>33.51172552917559</v>
       </c>
       <c r="C11">
-        <v>24.79335629397884</v>
+        <v>24.78991902527547</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>26.84290751516469</v>
+        <v>26.8619908192067</v>
       </c>
       <c r="F11">
-        <v>51.26396134046358</v>
+        <v>51.24042003019835</v>
       </c>
       <c r="G11">
-        <v>31.72261512559138</v>
+        <v>31.7447733418222</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>31.53757032618246</v>
       </c>
       <c r="I11">
-        <v>12.97997418771202</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>12.95837893318769</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -786,37 +816,40 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.99349552271877</v>
+        <v>33.99002813320708</v>
       </c>
       <c r="C12">
-        <v>25.13957102065853</v>
+        <v>25.13597645079704</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>27.21740197161281</v>
+        <v>27.2367127771762</v>
       </c>
       <c r="F12">
-        <v>52.04850382819905</v>
+        <v>52.02456808399332</v>
       </c>
       <c r="G12">
-        <v>32.2371016302102</v>
+        <v>32.25972450206223</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>32.03367094044931</v>
       </c>
       <c r="I12">
-        <v>13.21082769420475</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>13.18892842673839</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -824,37 +857,40 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.89068902788645</v>
+        <v>33.88725794565953</v>
       </c>
       <c r="C13">
-        <v>25.06516754546723</v>
+        <v>25.06160713411431</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>27.13692119259971</v>
+        <v>27.15618335551486</v>
       </c>
       <c r="F13">
-        <v>51.87978182044532</v>
+        <v>51.85593131992455</v>
       </c>
       <c r="G13">
-        <v>32.12624512485671</v>
+        <v>32.14876767342177</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>31.92672676250925</v>
       </c>
       <c r="I13">
-        <v>13.16107502281633</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>13.13924131476754</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -862,37 +898,40 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.55449939800359</v>
+        <v>33.55118537070382</v>
       </c>
       <c r="C14">
-        <v>24.82191254754786</v>
+        <v>24.81846246170096</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>26.87379638434325</v>
+        <v>26.89289856366787</v>
       </c>
       <c r="F14">
-        <v>51.32861772969198</v>
+        <v>51.3050440980651</v>
       </c>
       <c r="G14">
-        <v>31.76492009830603</v>
+        <v>31.78711642744927</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>31.5783412219275</v>
       </c>
       <c r="I14">
-        <v>12.9989521848573</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>12.97733195479197</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -900,37 +939,40 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.34785684584278</v>
+        <v>33.34461351455897</v>
       </c>
       <c r="C15">
-        <v>24.67243345481225</v>
+        <v>24.66905015262553</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>26.71210700854332</v>
+        <v>26.73111016716128</v>
       </c>
       <c r="F15">
-        <v>50.99027833738886</v>
+        <v>50.96687347903534</v>
       </c>
       <c r="G15">
-        <v>31.54373387692956</v>
+        <v>31.56573113871179</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>31.3652207600817</v>
       </c>
       <c r="I15">
-        <v>12.89973624123007</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>12.87824655247296</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -938,37 +980,40 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.15216069780276</v>
+        <v>32.14930845161427</v>
       </c>
       <c r="C16">
-        <v>23.80809069029991</v>
+        <v>23.80507910847124</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>25.77715936519186</v>
+        <v>25.7955797459851</v>
       </c>
       <c r="F16">
-        <v>49.03915127596099</v>
+        <v>49.0167030207726</v>
       </c>
       <c r="G16">
-        <v>30.27753290554094</v>
+        <v>30.29840157635685</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>30.14743802429233</v>
       </c>
       <c r="I16">
-        <v>12.38381009031906</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>12.3629506053086</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -976,37 +1021,40 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.40783015465255</v>
+        <v>31.40520662104276</v>
       </c>
       <c r="C17">
-        <v>23.27052565610524</v>
+        <v>23.2677334824197</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>25.19568786240243</v>
+        <v>25.21373742238866</v>
       </c>
       <c r="F17">
-        <v>47.83029459050996</v>
+        <v>47.80842567911715</v>
       </c>
       <c r="G17">
-        <v>29.50119821149336</v>
+        <v>29.52138610072227</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>29.40282412014337</v>
       </c>
       <c r="I17">
-        <v>12.13988197691881</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>12.1195750960325</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1014,37 +1062,40 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.97553796205978</v>
+        <v>30.97304233994846</v>
       </c>
       <c r="C18">
-        <v>22.95848954616771</v>
+        <v>22.95582082625526</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>24.85816985843623</v>
+        <v>24.87600136919849</v>
       </c>
       <c r="F18">
-        <v>47.13025628559054</v>
+        <v>47.10871853388144</v>
       </c>
       <c r="G18">
-        <v>29.0545645713356</v>
+        <v>29.07436541940991</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>28.97520051137882</v>
       </c>
       <c r="I18">
-        <v>12.00181676951017</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.98183049205005</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1052,37 +1103,40 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.82843663367588</v>
+        <v>30.82598373705146</v>
       </c>
       <c r="C19">
-        <v>22.85233757670209</v>
+        <v>22.84971022216942</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>24.74335009282205</v>
+        <v>24.76110696807986</v>
       </c>
       <c r="F19">
-        <v>46.89239003260523</v>
+        <v>46.8709641112237</v>
       </c>
       <c r="G19">
-        <v>28.9033009000828</v>
+        <v>28.92297150603214</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>28.8305070090285</v>
       </c>
       <c r="I19">
-        <v>11.95544289880405</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.93556567262272</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1090,37 +1144,40 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.48749297287991</v>
+        <v>31.4848454790689</v>
       </c>
       <c r="C20">
-        <v>23.32804130871002</v>
+        <v>23.32522607170881</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>25.25790081874342</v>
+        <v>25.27599034872</v>
       </c>
       <c r="F20">
-        <v>47.95946186853218</v>
+        <v>47.93753151312896</v>
       </c>
       <c r="G20">
-        <v>29.58384578672797</v>
+        <v>29.60410568400559</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>29.48201632320241</v>
       </c>
       <c r="I20">
-        <v>12.16561437687365</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>12.14524839122764</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1128,37 +1185,40 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.65339449217912</v>
+        <v>33.65004629551913</v>
       </c>
       <c r="C21">
-        <v>24.89346111903404</v>
+        <v>24.88997879633349</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>26.95118935180969</v>
+        <v>26.97033873707695</v>
       </c>
       <c r="F21">
-        <v>51.49065883651748</v>
+        <v>51.46700405698756</v>
       </c>
       <c r="G21">
-        <v>31.87101981272602</v>
+        <v>31.89331180545618</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>31.68061125139653</v>
       </c>
       <c r="I21">
-        <v>13.04655187443643</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>13.02486898951244</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1166,37 +1226,40 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.03630413711262</v>
+        <v>35.03245441714746</v>
       </c>
       <c r="C22">
-        <v>25.89471693713312</v>
+        <v>25.89076429363719</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>28.03422040666417</v>
+        <v>28.05401690405623</v>
       </c>
       <c r="F22">
-        <v>53.76457561476614</v>
+        <v>53.73975920195932</v>
       </c>
       <c r="G22">
-        <v>33.37114092986226</v>
+        <v>33.39479537007593</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>33.1291668417408</v>
       </c>
       <c r="I22">
-        <v>13.72019003965345</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>13.69761800689613</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1204,37 +1267,40 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.3009622119238</v>
+        <v>34.29738478004196</v>
       </c>
       <c r="C23">
-        <v>25.36213793891115</v>
+        <v>25.35844001000717</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>27.4581475303558</v>
+        <v>27.47760301469568</v>
       </c>
       <c r="F23">
-        <v>52.5535985431532</v>
+        <v>52.52940620647508</v>
       </c>
       <c r="G23">
-        <v>32.56965732786903</v>
+        <v>32.59258176634</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>32.35464837700962</v>
       </c>
       <c r="I23">
-        <v>13.36011820442033</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>13.3380220679159</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1242,37 +1308,40 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.45149106077489</v>
+        <v>31.44885441040457</v>
       </c>
       <c r="C24">
-        <v>23.30204780870972</v>
+        <v>23.29924300690309</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>25.22978441589695</v>
+        <v>25.24785589055562</v>
       </c>
       <c r="F24">
-        <v>47.9010811579213</v>
+        <v>47.87917858714542</v>
       </c>
       <c r="G24">
-        <v>29.54648184144933</v>
+        <v>29.56670917014211</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>29.44621213747955</v>
       </c>
       <c r="I24">
-        <v>12.15397402330269</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>12.13363474978975</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1280,42 +1349,48 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.2165533002596</v>
+        <v>28.21479578736019</v>
       </c>
       <c r="C25">
-        <v>20.96990442407042</v>
+        <v>20.96796131541473</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>22.70733541598615</v>
+        <v>22.7237323064572</v>
       </c>
       <c r="F25">
-        <v>42.69859634939598</v>
+        <v>42.67908946190899</v>
       </c>
       <c r="G25">
-        <v>26.62616004251982</v>
+        <v>26.33286662575503</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>26.64285045959902</v>
       </c>
       <c r="I25">
-        <v>11.184165879945</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.1662226662551</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_60/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.67502481790423</v>
+        <v>24.06494235575816</v>
       </c>
       <c r="C2">
-        <v>19.14199279858546</v>
+        <v>17.0234116606231</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>20.74717311804957</v>
+        <v>7.489765285885806</v>
       </c>
       <c r="F2">
-        <v>38.65815704962907</v>
+        <v>65.28207018733688</v>
       </c>
       <c r="G2">
-        <v>24.04182011125739</v>
+        <v>2.115965341750941</v>
       </c>
       <c r="H2">
-        <v>24.69825787284727</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.51517948805075</v>
+        <v>11.11909846666142</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>3.392843886314138</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.84680510042099</v>
+        <v>22.60177482017683</v>
       </c>
       <c r="C3">
-        <v>17.83037709465268</v>
+        <v>15.73356031287509</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>19.327789596427</v>
+        <v>7.091678183899392</v>
       </c>
       <c r="F3">
-        <v>35.80073991363311</v>
+        <v>61.8738448091937</v>
       </c>
       <c r="G3">
-        <v>22.4856078031134</v>
+        <v>2.132672805569538</v>
       </c>
       <c r="H3">
-        <v>23.41403518731961</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.10803356525426</v>
+        <v>10.75667313461016</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>3.602679467544137</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.66918530265465</v>
+        <v>21.69330521622052</v>
       </c>
       <c r="C4">
-        <v>16.98687034624333</v>
+        <v>14.90961627838848</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>18.41521568877072</v>
+        <v>6.843524600418668</v>
       </c>
       <c r="F4">
-        <v>33.97792292259366</v>
+        <v>59.75065676599587</v>
       </c>
       <c r="G4">
-        <v>21.52829635758014</v>
+        <v>2.143051864242369</v>
       </c>
       <c r="H4">
-        <v>22.64207577040034</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.873750639703498</v>
+        <v>10.53483361187601</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>3.73355319809642</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.17513350998113</v>
+        <v>21.32072663863456</v>
       </c>
       <c r="C5">
-        <v>16.63333157948266</v>
+        <v>14.56548890528381</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18.03279462906908</v>
+        <v>6.741446727231598</v>
       </c>
       <c r="F5">
-        <v>33.21758911170639</v>
+        <v>58.87786568909998</v>
       </c>
       <c r="G5">
-        <v>21.13787699430233</v>
+        <v>2.147319216945606</v>
       </c>
       <c r="H5">
-        <v>22.33175010217307</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.782080079390758</v>
+        <v>10.44455117912244</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>3.787487995626323</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.09223261332003</v>
+        <v>21.25872452504814</v>
       </c>
       <c r="C6">
-        <v>16.57402918657571</v>
+        <v>14.50783294847348</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17.96865166627676</v>
+        <v>6.724439222056253</v>
       </c>
       <c r="F6">
-        <v>33.09027035554433</v>
+        <v>58.73248915886743</v>
       </c>
       <c r="G6">
-        <v>21.07303625882221</v>
+        <v>2.148030293071247</v>
       </c>
       <c r="H6">
-        <v>22.28048161738263</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.767083617436281</v>
+        <v>10.4295657386474</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>3.796482722570222</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.66258008248276</v>
+        <v>21.68828977091</v>
       </c>
       <c r="C7">
-        <v>16.98214234210011</v>
+        <v>14.90500952003095</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>18.41010116018609</v>
+        <v>6.842151804845866</v>
       </c>
       <c r="F7">
-        <v>33.96774010042203</v>
+        <v>59.73891637341042</v>
       </c>
       <c r="G7">
-        <v>21.52303198641406</v>
+        <v>2.143109252938212</v>
       </c>
       <c r="H7">
-        <v>22.63787321635017</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.872499137625148</v>
+        <v>10.53361561038311</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>3.734278027420012</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.05589251473032</v>
+        <v>23.56259003917422</v>
       </c>
       <c r="C8">
-        <v>18.69753770906348</v>
+        <v>16.58509796874473</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>20.26615501142352</v>
+        <v>7.353260088002675</v>
       </c>
       <c r="F8">
-        <v>37.68687153437651</v>
+        <v>64.11323713244911</v>
       </c>
       <c r="G8">
-        <v>23.50565455246048</v>
+        <v>2.12170582968388</v>
       </c>
       <c r="H8">
-        <v>24.25205164762357</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.37144415684263</v>
+        <v>10.99395226344302</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>3.464831064980026</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.32763524038543</v>
+        <v>27.33914570875882</v>
       </c>
       <c r="C9">
-        <v>21.76938268239394</v>
+        <v>19.64318137566664</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>23.59139397278224</v>
+        <v>8.328273179303167</v>
       </c>
       <c r="F9">
-        <v>44.45863252574893</v>
+        <v>72.45801531792031</v>
       </c>
       <c r="G9">
-        <v>27.40162667116343</v>
+        <v>2.08029838129096</v>
       </c>
       <c r="H9">
-        <v>27.54965788064104</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.48193474585001</v>
+        <v>11.90572699953562</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>3.362100744001497</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.23366380984328</v>
+        <v>30.21670291369196</v>
       </c>
       <c r="C10">
-        <v>23.86601914552949</v>
+        <v>21.77431086223643</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>25.86156672754392</v>
+        <v>9.033826044806204</v>
       </c>
       <c r="F10">
-        <v>49.15395917720988</v>
+        <v>78.48120735400784</v>
       </c>
       <c r="G10">
-        <v>30.38706915397302</v>
+        <v>2.049564978358626</v>
       </c>
       <c r="H10">
-        <v>30.23250970622788</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>12.39103390143692</v>
+        <v>12.58823197719188</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>3.672446334442911</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.51172552917559</v>
+        <v>31.51016904991021</v>
       </c>
       <c r="C11">
-        <v>24.78991902527547</v>
+        <v>22.72683546836639</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>26.8619908192067</v>
+        <v>9.354629198233949</v>
       </c>
       <c r="F11">
-        <v>51.24042003019835</v>
+        <v>81.21268355636919</v>
       </c>
       <c r="G11">
-        <v>31.7447733418222</v>
+        <v>2.0353288736563</v>
       </c>
       <c r="H11">
-        <v>31.53757032618246</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>12.95837893318769</v>
+        <v>12.90381709806238</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>3.815197593107912</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.99002813320708</v>
+        <v>31.99875490747795</v>
       </c>
       <c r="C12">
-        <v>25.13597645079704</v>
+        <v>23.08595768410289</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>27.2367127771762</v>
+        <v>9.47634490522195</v>
       </c>
       <c r="F12">
-        <v>52.02456808399332</v>
+        <v>82.24762923947031</v>
       </c>
       <c r="G12">
-        <v>32.25972450206223</v>
+        <v>2.0298814216819</v>
       </c>
       <c r="H12">
-        <v>32.03367094044931</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>13.18892842673839</v>
+        <v>13.02432673658816</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>3.869675613791025</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.88725794565953</v>
+        <v>31.89356437761452</v>
       </c>
       <c r="C13">
-        <v>25.06160713411431</v>
+        <v>23.00866873946625</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>27.15618335551486</v>
+        <v>9.450115902965148</v>
       </c>
       <c r="F13">
-        <v>51.85593131992455</v>
+        <v>82.02467351530244</v>
       </c>
       <c r="G13">
-        <v>32.14876767342177</v>
+        <v>2.031057507375461</v>
       </c>
       <c r="H13">
-        <v>31.92672676250925</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>13.13924131476754</v>
+        <v>12.99832304146767</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>3.857920490863556</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.55118537070382</v>
+        <v>31.55038298450915</v>
       </c>
       <c r="C14">
-        <v>24.81846246170096</v>
+        <v>22.7564066996337</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>26.89289856366787</v>
+        <v>9.364636378515792</v>
       </c>
       <c r="F14">
-        <v>51.3050440980651</v>
+        <v>81.29780476137944</v>
       </c>
       <c r="G14">
-        <v>31.78711642744927</v>
+        <v>2.034881971439747</v>
       </c>
       <c r="H14">
-        <v>31.5783412219275</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12.97733195479197</v>
+        <v>12.91370955282545</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>3.819669819791941</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.34461351455897</v>
+        <v>31.34005018238931</v>
       </c>
       <c r="C15">
-        <v>24.66905015262553</v>
+        <v>22.60171209107491</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>26.73111016716128</v>
+        <v>9.312317159866737</v>
       </c>
       <c r="F15">
-        <v>50.96687347903534</v>
+        <v>80.85271788228773</v>
       </c>
       <c r="G15">
-        <v>31.56573113871179</v>
+        <v>2.037216537403357</v>
       </c>
       <c r="H15">
-        <v>31.3652207600817</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>12.87824655247296</v>
+        <v>12.86202143941643</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>3.796301551126818</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.14930845161427</v>
+        <v>30.13193959482563</v>
       </c>
       <c r="C16">
-        <v>23.80507910847124</v>
+        <v>21.71178943634106</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>25.7955797459851</v>
+        <v>9.012877963410924</v>
       </c>
       <c r="F16">
-        <v>49.0167030207726</v>
+        <v>78.3026705683673</v>
       </c>
       <c r="G16">
-        <v>30.29840157635685</v>
+        <v>2.050488605445231</v>
       </c>
       <c r="H16">
-        <v>30.14743802429233</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>12.3629506053086</v>
+        <v>12.56773196372832</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>3.663164592967431</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.40520662104276</v>
+        <v>29.38746001621115</v>
       </c>
       <c r="C17">
-        <v>23.2677334824197</v>
+        <v>21.16206673423528</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>25.21373742238866</v>
+        <v>8.829302094453926</v>
       </c>
       <c r="F17">
-        <v>47.80842567911715</v>
+        <v>76.7372433788758</v>
       </c>
       <c r="G17">
-        <v>29.52138610072227</v>
+        <v>2.058552389121103</v>
       </c>
       <c r="H17">
-        <v>29.40282412014337</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12.1195750960325</v>
+        <v>12.38867326064439</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>3.582018492488591</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.97304233994846</v>
+        <v>28.95771650569484</v>
       </c>
       <c r="C18">
-        <v>22.95582082625526</v>
+        <v>20.84422581325192</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>24.87600136919849</v>
+        <v>8.723680116487543</v>
       </c>
       <c r="F18">
-        <v>47.10871853388144</v>
+        <v>75.83591181725178</v>
       </c>
       <c r="G18">
-        <v>29.07436541940991</v>
+        <v>2.063167839607602</v>
       </c>
       <c r="H18">
-        <v>28.97520051137882</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.98183049205005</v>
+        <v>12.28614447875316</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>3.535479696759689</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.82598373705146</v>
+        <v>28.81192185180029</v>
       </c>
       <c r="C19">
-        <v>22.84971022216942</v>
+        <v>20.73630289514429</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>24.76110696807986</v>
+        <v>8.687905827283302</v>
       </c>
       <c r="F19">
-        <v>46.8709641112237</v>
+        <v>75.53052862746198</v>
       </c>
       <c r="G19">
-        <v>28.92297150603214</v>
+        <v>2.064727202271517</v>
       </c>
       <c r="H19">
-        <v>28.8305070090285</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.93556567262272</v>
+        <v>12.25150212742044</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>3.519740242350518</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.4848454790689</v>
+        <v>29.46686387461902</v>
       </c>
       <c r="C20">
-        <v>23.32522607170881</v>
+        <v>21.22075131090515</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>25.27599034872</v>
+        <v>8.848845948203836</v>
       </c>
       <c r="F20">
-        <v>47.93753151312896</v>
+        <v>76.90397158564838</v>
       </c>
       <c r="G20">
-        <v>29.60410568400559</v>
+        <v>2.057696457181863</v>
       </c>
       <c r="H20">
-        <v>29.48201632320241</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12.14524839122764</v>
+        <v>12.40768492775836</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>3.590641453614681</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.65004629551913</v>
+        <v>31.65120736706747</v>
       </c>
       <c r="C21">
-        <v>24.88997879633349</v>
+        <v>22.83053721514107</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>26.97033873707695</v>
+        <v>9.389734994631443</v>
       </c>
       <c r="F21">
-        <v>51.46700405698756</v>
+        <v>81.51127022279239</v>
       </c>
       <c r="G21">
-        <v>31.89331180545618</v>
+        <v>2.033760348744975</v>
       </c>
       <c r="H21">
-        <v>31.68061125139653</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>13.02486898951244</v>
+        <v>12.93853279875511</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>3.830891768427745</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.03245441714746</v>
+        <v>33.07236693599027</v>
       </c>
       <c r="C22">
-        <v>25.89076429363719</v>
+        <v>23.87397538234391</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>28.05401690405623</v>
+        <v>9.744782481439621</v>
       </c>
       <c r="F22">
-        <v>53.73975920195932</v>
+        <v>84.5271628091598</v>
       </c>
       <c r="G22">
-        <v>33.39479537007593</v>
+        <v>2.017774392683388</v>
       </c>
       <c r="H22">
-        <v>33.1291668417408</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>13.69761800689613</v>
+        <v>13.29151142288264</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>3.990488668162697</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.29738478004196</v>
+        <v>32.31404465882643</v>
       </c>
       <c r="C23">
-        <v>25.35844001000717</v>
+        <v>23.31752764606014</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>27.47760301469568</v>
+        <v>9.555039709119102</v>
       </c>
       <c r="F23">
-        <v>52.52940620647508</v>
+        <v>82.91633003621942</v>
       </c>
       <c r="G23">
-        <v>32.59258176634</v>
+        <v>2.02634551656854</v>
       </c>
       <c r="H23">
-        <v>32.35464837700962</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>13.3380220679159</v>
+        <v>13.10245746017014</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>3.904996419039688</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.44885441040457</v>
+        <v>29.43097085874296</v>
       </c>
       <c r="C24">
-        <v>23.29924300690309</v>
+        <v>21.19422567631473</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>25.24785589055562</v>
+        <v>8.840010444973441</v>
       </c>
       <c r="F24">
-        <v>47.87917858714542</v>
+        <v>76.82859808721565</v>
       </c>
       <c r="G24">
-        <v>29.56670917014211</v>
+        <v>2.058083486509884</v>
       </c>
       <c r="H24">
-        <v>29.44621213747955</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12.13363474978975</v>
+        <v>12.39908848143781</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>3.58674267449651</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.21479578736019</v>
+        <v>26.26028296787407</v>
       </c>
       <c r="C25">
-        <v>20.96796131541473</v>
+        <v>18.83856299108481</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>22.7237323064572</v>
+        <v>8.066968318226929</v>
       </c>
       <c r="F25">
-        <v>42.67908946190899</v>
+        <v>70.22312349398818</v>
       </c>
       <c r="G25">
-        <v>26.33286662575503</v>
+        <v>2.091500537808594</v>
       </c>
       <c r="H25">
-        <v>26.64285045959902</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.1662226662551</v>
+        <v>11.65748962227643</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>3.248117158810401</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_60/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.06494235575816</v>
+        <v>17.31849859377851</v>
       </c>
       <c r="C2">
-        <v>17.0234116606231</v>
+        <v>10.68068861066852</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.489765285885806</v>
+        <v>29.21290368645545</v>
       </c>
       <c r="F2">
-        <v>65.28207018733688</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.115965341750941</v>
+        <v>2.098313668294894</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.11909846666142</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.3406471888725</v>
       </c>
       <c r="L2">
-        <v>3.392843886314138</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>15.83516455482363</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.60177482017683</v>
+        <v>16.11859275992931</v>
       </c>
       <c r="C3">
-        <v>15.73356031287509</v>
+        <v>9.888080707490744</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.091678183899392</v>
+        <v>27.02573671554181</v>
       </c>
       <c r="F3">
-        <v>61.8738448091937</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.132672805569538</v>
+        <v>2.109261486656787</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.75667313461016</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.21898761589671</v>
       </c>
       <c r="L3">
-        <v>3.602679467544137</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>15.89828624545492</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.69330521622052</v>
+        <v>15.4177588114783</v>
       </c>
       <c r="C4">
-        <v>14.90961627838848</v>
+        <v>9.379867084133839</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.843524600418668</v>
+        <v>25.6271657875125</v>
       </c>
       <c r="F4">
-        <v>59.75065676599587</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.143051864242369</v>
+        <v>2.116092093969537</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.53483361187601</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.53315312009285</v>
       </c>
       <c r="L4">
-        <v>3.73355319809642</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>15.94343782300728</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.32072663863456</v>
+        <v>15.12687338263227</v>
       </c>
       <c r="C5">
-        <v>14.56548890528381</v>
+        <v>9.167196777784071</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.741446727231598</v>
+        <v>25.04271429431278</v>
       </c>
       <c r="F5">
-        <v>58.87786568909998</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.147319216945606</v>
+        <v>2.11890653000976</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.44455117912244</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.29512803146876</v>
       </c>
       <c r="L5">
-        <v>3.787487995626323</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>15.96334762300702</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.25872452504814</v>
+        <v>15.07825673032767</v>
       </c>
       <c r="C6">
-        <v>14.50783294847348</v>
+        <v>9.131542564204061</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.724439222056253</v>
+        <v>24.94477485873887</v>
       </c>
       <c r="F6">
-        <v>58.73248915886743</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.148030293071247</v>
+        <v>2.119375830437079</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.4295657386474</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.25539890204304</v>
       </c>
       <c r="L6">
-        <v>3.796482722570222</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>15.96674215938851</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.68828977091</v>
+        <v>15.41385707069274</v>
       </c>
       <c r="C7">
-        <v>14.90500952003095</v>
+        <v>9.377021675188288</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.842151804845866</v>
+        <v>25.61934313758587</v>
       </c>
       <c r="F7">
-        <v>59.73891637341042</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.143109252938212</v>
+        <v>2.116129920785137</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.53361561038311</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.52995690136965</v>
       </c>
       <c r="L7">
-        <v>3.734278027420012</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>15.94370034129954</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.56259003917422</v>
+        <v>16.89251331805644</v>
       </c>
       <c r="C8">
-        <v>16.58509796874473</v>
+        <v>10.41177440190935</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.353260088002675</v>
+        <v>28.46998072853555</v>
       </c>
       <c r="F8">
-        <v>64.11323713244911</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.12170582968388</v>
+        <v>2.102068217135476</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.99395226344302</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.96048298996437</v>
       </c>
       <c r="L8">
-        <v>3.464831064980026</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>15.85553978217978</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.33914570875882</v>
+        <v>19.84199842143974</v>
       </c>
       <c r="C9">
-        <v>19.64318137566664</v>
+        <v>12.27763853619334</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.328273179303167</v>
+        <v>33.64565522091154</v>
       </c>
       <c r="F9">
-        <v>72.45801531792031</v>
+        <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>2.08029838129096</v>
+        <v>2.075171047913841</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.90572699953562</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>17.589642968806</v>
       </c>
       <c r="L9">
-        <v>3.362100744001497</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>15.73835912618013</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.21670291369196</v>
+        <v>21.8598606901053</v>
       </c>
       <c r="C10">
-        <v>21.77431086223643</v>
+        <v>13.56132358853074</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.033826044806204</v>
+        <v>37.23928335078093</v>
       </c>
       <c r="F10">
-        <v>78.48120735400784</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>2.049564978358626</v>
+        <v>2.055526506271979</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>12.58823197719188</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>19.3860368938759</v>
       </c>
       <c r="L10">
-        <v>3.672446334442911</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>15.69412892730593</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.51016904991021</v>
+        <v>22.7494772162455</v>
       </c>
       <c r="C11">
-        <v>22.72683546836639</v>
+        <v>14.12970528405943</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.354629198233949</v>
+        <v>38.84065279817682</v>
       </c>
       <c r="F11">
-        <v>81.21268355636919</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>2.0353288736563</v>
+        <v>2.046534920281943</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>12.90381709806238</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>20.17790692411193</v>
       </c>
       <c r="L11">
-        <v>3.815197593107912</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>15.68519990108673</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.99875490747795</v>
+        <v>23.08268833823519</v>
       </c>
       <c r="C12">
-        <v>23.08595768410289</v>
+        <v>14.34303123176984</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.47634490522195</v>
+        <v>39.44346288329966</v>
       </c>
       <c r="F12">
-        <v>82.24762923947031</v>
+        <v>39.67592721363785</v>
       </c>
       <c r="G12">
-        <v>2.0298814216819</v>
+        <v>2.043114013695964</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>13.02432673658816</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>20.47452482754021</v>
       </c>
       <c r="L12">
-        <v>3.869675613791025</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>15.6836372468522</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.89356437761452</v>
+        <v>23.0110812277828</v>
       </c>
       <c r="C13">
-        <v>23.00866873946625</v>
+        <v>14.29716661745219</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.450115902965148</v>
+        <v>39.31377506910795</v>
       </c>
       <c r="F13">
-        <v>82.02467351530244</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>2.031057507375461</v>
+        <v>2.043851621977603</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>12.99832304146767</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>20.41078022751944</v>
       </c>
       <c r="L13">
-        <v>3.857920490863556</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>15.68388922321632</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.55038298450915</v>
+        <v>22.77696161377685</v>
       </c>
       <c r="C14">
-        <v>22.7564066996337</v>
+        <v>14.14729186817605</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.364636378515792</v>
+        <v>38.89031063530314</v>
       </c>
       <c r="F14">
-        <v>81.29780476137944</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>2.034881971439747</v>
+        <v>2.046253851921373</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12.91370955282545</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>20.20237241775063</v>
       </c>
       <c r="L14">
-        <v>3.819669819791941</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>15.68503357741008</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.34005018238931</v>
+        <v>22.63309225417988</v>
       </c>
       <c r="C15">
-        <v>22.60171209107491</v>
+        <v>14.05525162019955</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.312317159866737</v>
+        <v>38.63049815003141</v>
       </c>
       <c r="F15">
-        <v>80.85271788228773</v>
+        <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>2.037216537403357</v>
+        <v>2.047722941654111</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>12.86202143941643</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>20.07430671137159</v>
       </c>
       <c r="L15">
-        <v>3.796301551126818</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>15.68597812893658</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.13193959482563</v>
+        <v>21.8011853048521</v>
       </c>
       <c r="C16">
-        <v>21.71178943634106</v>
+        <v>13.52389220588781</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.012877963410924</v>
+        <v>37.13405643371196</v>
       </c>
       <c r="F16">
-        <v>78.3026705683673</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>2.050488605445231</v>
+        <v>2.056112360201943</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>12.56773196372832</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>19.33380914583156</v>
       </c>
       <c r="L16">
-        <v>3.663164592967431</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>15.69495482366148</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.38746001621115</v>
+        <v>21.28385039330665</v>
       </c>
       <c r="C17">
-        <v>21.16206673423528</v>
+        <v>13.19415049606306</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.829302094453926</v>
+        <v>36.20827782714927</v>
       </c>
       <c r="F17">
-        <v>76.7372433788758</v>
+        <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>2.058552389121103</v>
+        <v>2.061239557724533</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12.38867326064439</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>18.87331451324239</v>
       </c>
       <c r="L17">
-        <v>3.582018492488591</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>15.70346720571155</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.95771650569484</v>
+        <v>20.98359941662376</v>
       </c>
       <c r="C18">
-        <v>20.84422581325192</v>
+        <v>13.00300315120027</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.723680116487543</v>
+        <v>35.67256775512845</v>
       </c>
       <c r="F18">
-        <v>75.83591181725178</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>2.063167839607602</v>
+        <v>2.064183947563702</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>12.28614447875316</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>18.60604006745426</v>
       </c>
       <c r="L18">
-        <v>3.535479696759689</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>15.70940244218683</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.81192185180029</v>
+        <v>20.8814657609322</v>
       </c>
       <c r="C19">
-        <v>20.73630289514429</v>
+        <v>12.93801906220406</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.687905827283302</v>
+        <v>35.49059805074053</v>
       </c>
       <c r="F19">
-        <v>75.53052862746198</v>
+        <v>36.1517249415006</v>
       </c>
       <c r="G19">
-        <v>2.064727202271517</v>
+        <v>2.065180293943837</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>12.25150212742044</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>18.51512058196149</v>
       </c>
       <c r="L19">
-        <v>3.519740242350518</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>15.71158462009593</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.46686387461902</v>
+        <v>21.33919764945738</v>
       </c>
       <c r="C20">
-        <v>21.22075131090515</v>
+        <v>13.22940390854084</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.848845948203836</v>
+        <v>36.30715444387916</v>
       </c>
       <c r="F20">
-        <v>76.90397158564838</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>2.057696457181863</v>
+        <v>2.060694292794584</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12.40768492775836</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>18.92258173358336</v>
       </c>
       <c r="L20">
-        <v>3.590641453614681</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>15.70245208693181</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.65120736706747</v>
+        <v>22.84582415819483</v>
       </c>
       <c r="C21">
-        <v>22.83053721514107</v>
+        <v>14.19136256248056</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.389734994631443</v>
+        <v>39.0147791723854</v>
       </c>
       <c r="F21">
-        <v>81.51127022279239</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>2.033760348744975</v>
+        <v>2.045548764001039</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>12.93853279875511</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>20.2636714673384</v>
       </c>
       <c r="L21">
-        <v>3.830891768427745</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>15.68464626553693</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.07236693599027</v>
+        <v>23.80935954146613</v>
       </c>
       <c r="C22">
-        <v>23.87397538234391</v>
+        <v>14.80913626548739</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.744782481439621</v>
+        <v>40.76415911044782</v>
       </c>
       <c r="F22">
-        <v>84.5271628091598</v>
+        <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>2.017774392683388</v>
+        <v>2.035552250902412</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>13.29151142288264</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>21.12146438171274</v>
       </c>
       <c r="L22">
-        <v>3.990488668162697</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>15.68373140330733</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.31404465882643</v>
+        <v>23.29688240272909</v>
       </c>
       <c r="C23">
-        <v>23.31752764606014</v>
+        <v>14.48029272548654</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.555039709119102</v>
+        <v>39.83186930537557</v>
       </c>
       <c r="F23">
-        <v>82.91633003621942</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>2.02634551656854</v>
+        <v>2.04089960209191</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>13.10245746017014</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>20.66520554298641</v>
       </c>
       <c r="L23">
-        <v>3.904996419039688</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>15.68316049913952</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.43097085874296</v>
+        <v>21.31418399380511</v>
       </c>
       <c r="C24">
-        <v>21.19422567631473</v>
+        <v>13.2134707689366</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.840010444973441</v>
+        <v>36.26246321350599</v>
       </c>
       <c r="F24">
-        <v>76.82859808721565</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>2.058083486509884</v>
+        <v>2.06094081677636</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12.39908848143781</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>18.90031593229144</v>
       </c>
       <c r="L24">
-        <v>3.58674267449651</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>15.70290779403408</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.26028296787407</v>
+        <v>19.07146170380257</v>
       </c>
       <c r="C25">
-        <v>18.83856299108481</v>
+        <v>11.78917908035204</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.066968318226929</v>
+        <v>32.28573490719486</v>
       </c>
       <c r="F25">
-        <v>70.22312349398818</v>
+        <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>2.091500537808594</v>
+        <v>2.08240295118854</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.65748962227643</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>16.90335039638425</v>
       </c>
       <c r="L25">
-        <v>3.248117158810401</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>15.76334405273164</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_60/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.31849859377851</v>
+        <v>14.4912210536349</v>
       </c>
       <c r="C2">
-        <v>10.68068861066852</v>
+        <v>7.079516359081339</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>29.21290368645545</v>
+        <v>16.26169844247173</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>2.098313668294894</v>
+        <v>3.689719431862343</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.3406471888725</v>
+        <v>13.84453735182456</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.83516455482363</v>
+        <v>21.62270149231703</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.11859275992931</v>
+        <v>14.20137136207102</v>
       </c>
       <c r="C3">
-        <v>9.888080707490744</v>
+        <v>6.82392300194945</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.02573671554181</v>
+        <v>15.35250948142855</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>2.109261486656787</v>
+        <v>3.693259905708472</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.21898761589671</v>
+        <v>13.64107894097801</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.89828624545492</v>
+        <v>21.64174064936995</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.4177588114783</v>
+        <v>14.02515504888891</v>
       </c>
       <c r="C4">
-        <v>9.379867084133839</v>
+        <v>6.664606629571034</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>25.6271657875125</v>
+        <v>14.77147776301505</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>2.116092093969537</v>
+        <v>3.695541450298191</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.53315312009285</v>
+        <v>13.51896853510846</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.94343782300728</v>
+        <v>21.65516783943433</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.12687338263227</v>
+        <v>13.95389361324201</v>
       </c>
       <c r="C5">
-        <v>9.167196777784071</v>
+        <v>6.599199982845853</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.04271429431278</v>
+        <v>14.5292495782045</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>2.11890653000976</v>
+        <v>3.696498390004387</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.29512803146876</v>
+        <v>13.46997782787656</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.96334762300702</v>
+        <v>21.66107488040349</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.07825673032767</v>
+        <v>13.94209696140963</v>
       </c>
       <c r="C6">
-        <v>9.131542564204061</v>
+        <v>6.588313570864923</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24.94477485873887</v>
+        <v>14.48870754695591</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>2.119375830437079</v>
+        <v>3.696658934796372</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.25539890204304</v>
+        <v>13.46189128165816</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.96674215938851</v>
+        <v>21.66208199155207</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.41385707069274</v>
+        <v>14.02419163059901</v>
       </c>
       <c r="C7">
-        <v>9.377021675188288</v>
+        <v>6.663726333418224</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25.61934313758587</v>
+        <v>14.76823266359479</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>2.116129920785137</v>
+        <v>3.695554245674172</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.52995690136965</v>
+        <v>13.51830462891288</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.94370034129954</v>
+        <v>21.65524574318691</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.89251331805644</v>
+        <v>14.39098135988876</v>
       </c>
       <c r="C8">
-        <v>10.41177440190935</v>
+        <v>6.99194785589312</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>28.46998072853555</v>
+        <v>15.95308972361363</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>2.102068217135476</v>
+        <v>3.690917907799909</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.96048298996437</v>
+        <v>13.77383893393437</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.85553978217978</v>
+        <v>21.62890479520794</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.84199842143974</v>
+        <v>15.11949922488199</v>
       </c>
       <c r="C9">
-        <v>12.27763853619334</v>
+        <v>7.612146351663402</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>33.64565522091154</v>
+        <v>18.09284780727973</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.075171047913841</v>
+        <v>3.682675191085282</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.589642968806</v>
+        <v>14.29445235465257</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.73835912618013</v>
+        <v>21.59109871967752</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.8598606901053</v>
+        <v>15.65429785228634</v>
       </c>
       <c r="C10">
-        <v>13.56132358853074</v>
+        <v>8.048115177467672</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>37.23928335078093</v>
+        <v>19.71240002474015</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.055526506271979</v>
+        <v>3.677129530861658</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>19.3860368938759</v>
+        <v>14.68503357643522</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.69412892730593</v>
+        <v>21.57185600491345</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.7494772162455</v>
+        <v>15.89627692052382</v>
       </c>
       <c r="C11">
-        <v>14.12970528405943</v>
+        <v>8.241224211208987</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>38.84065279817682</v>
+        <v>20.4082400822486</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.046534920281943</v>
+        <v>3.674715878970088</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.17790692411193</v>
+        <v>14.86367167520345</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.68519990108673</v>
+        <v>21.56497437265686</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.08268833823519</v>
+        <v>15.98762522923459</v>
       </c>
       <c r="C12">
-        <v>14.34303123176984</v>
+        <v>8.313532704111482</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>39.44346288329966</v>
+        <v>20.66589358788439</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.043114013695964</v>
+        <v>3.673817457064806</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>20.47452482754021</v>
+        <v>14.93138976450192</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.6836372468522</v>
+        <v>21.56263921538601</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.0110812277828</v>
+        <v>15.96796584376084</v>
       </c>
       <c r="C13">
-        <v>14.29716661745219</v>
+        <v>8.297997134408986</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>39.31377506910795</v>
+        <v>20.61066273241322</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.043851621977603</v>
+        <v>3.674010257351394</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.41078022751944</v>
+        <v>14.91680331172749</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.68388922321632</v>
+        <v>21.56313006577616</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.77696161377685</v>
+        <v>15.90379842482883</v>
       </c>
       <c r="C14">
-        <v>14.14729186817605</v>
+        <v>8.247189820904259</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>38.89031063530314</v>
+        <v>20.42955435035663</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.046253851921373</v>
+        <v>3.674641653742612</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.20237241775063</v>
+        <v>14.86924182015463</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.68503357741008</v>
+        <v>21.56477682228405</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.63309225417988</v>
+        <v>15.86445428022691</v>
       </c>
       <c r="C15">
-        <v>14.05525162019955</v>
+        <v>8.215960516906041</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>38.63049815003141</v>
+        <v>20.31785996870638</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.047722941654111</v>
+        <v>3.675030427344273</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.07430671137159</v>
+        <v>14.84011643087484</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.68597812893658</v>
+        <v>21.56582081675903</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.8011853048521</v>
+        <v>15.6384493565478</v>
       </c>
       <c r="C16">
-        <v>13.52389220588781</v>
+        <v>8.035384117888945</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>37.13405643371196</v>
+        <v>19.66610523485372</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.056112360201943</v>
+        <v>3.677289454393995</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.33380914583156</v>
+        <v>14.67337277194686</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.69495482366148</v>
+        <v>21.57234354002378</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.28385039330665</v>
+        <v>15.49939853077789</v>
       </c>
       <c r="C17">
-        <v>13.19415049606306</v>
+        <v>7.923219666539645</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>36.20827782714927</v>
+        <v>19.25582418507218</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>2.061239557724533</v>
+        <v>3.678703156694513</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.87331451324239</v>
+        <v>14.57127922405659</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.70346720571155</v>
+        <v>21.57682560526221</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.98359941662376</v>
+        <v>15.41930293789333</v>
       </c>
       <c r="C18">
-        <v>13.00300315120027</v>
+        <v>7.858218237274427</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>35.67256775512845</v>
+        <v>19.01598932819554</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>2.064183947563702</v>
+        <v>3.679526556283018</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>18.60604006745426</v>
+        <v>14.51265202941681</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.70940244218683</v>
+        <v>21.57957967625559</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.8814657609322</v>
+        <v>15.39216683479216</v>
       </c>
       <c r="C19">
-        <v>12.93801906220406</v>
+        <v>7.836128361074109</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>35.49059805074053</v>
+        <v>18.93412268391262</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>2.065180293943837</v>
+        <v>3.679807113469031</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.51512058196149</v>
+        <v>14.49282011832209</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.71158462009593</v>
+        <v>21.58054235527004</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.33919764945738</v>
+        <v>15.5142135773167</v>
       </c>
       <c r="C20">
-        <v>13.22940390854084</v>
+        <v>7.935210725689346</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>36.30715444387916</v>
+        <v>19.29989771644986</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>20.2495528364879</v>
       </c>
       <c r="G20">
-        <v>2.060694292794584</v>
+        <v>3.678551603018756</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.92258173358336</v>
+        <v>14.58213798201347</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.70245208693181</v>
+        <v>21.57633024402872</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.84582415819483</v>
+        <v>15.92265439934251</v>
       </c>
       <c r="C21">
-        <v>14.19136256248056</v>
+        <v>8.262135851364217</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>39.0147791723854</v>
+        <v>20.48290864808347</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470567</v>
       </c>
       <c r="G21">
-        <v>2.045548764001039</v>
+        <v>3.674455775492151</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.2636714673384</v>
+        <v>14.88321035751948</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.68464626553693</v>
+        <v>21.56428576889477</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.80935954146613</v>
+        <v>16.18789824984568</v>
       </c>
       <c r="C22">
-        <v>14.80913626548739</v>
+        <v>8.471008425442209</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>40.76415911044782</v>
+        <v>21.22201603353881</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>22.22866616901555</v>
       </c>
       <c r="G22">
-        <v>2.035552250902412</v>
+        <v>3.67186965033526</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>21.12146438171274</v>
+        <v>15.08036708830419</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.68373140330733</v>
+        <v>21.55799297205185</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.29688240272909</v>
+        <v>16.04651828446485</v>
       </c>
       <c r="C23">
-        <v>14.48029272548654</v>
+        <v>8.359987915213924</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>39.83186930537557</v>
+        <v>20.83064513180085</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154475864</v>
       </c>
       <c r="G23">
-        <v>2.04089960209191</v>
+        <v>3.673241648846009</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>20.66520554298641</v>
+        <v>14.97512675840279</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.68316049913952</v>
+        <v>21.56120656221926</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.31418399380511</v>
+        <v>15.50751616527185</v>
       </c>
       <c r="C24">
-        <v>13.2134707689366</v>
+        <v>7.929791171687558</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>36.26246321350599</v>
+        <v>19.27998440644598</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905294</v>
       </c>
       <c r="G24">
-        <v>2.06094081677636</v>
+        <v>3.678620087275534</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.90031593229144</v>
+        <v>14.57722852146893</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.70290779403408</v>
+        <v>21.57655364479955</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.07146170380257</v>
+        <v>14.92206605213655</v>
       </c>
       <c r="C25">
-        <v>11.78917908035204</v>
+        <v>7.447471229087428</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>32.28573490719486</v>
+        <v>17.5306229213648</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295697</v>
       </c>
       <c r="G25">
-        <v>2.08240295118854</v>
+        <v>3.684814923419621</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.90335039638425</v>
+        <v>14.15191702507185</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.76334405273164</v>
+        <v>21.59983424328531</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_60/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.4912210536349</v>
+        <v>17.31849859377856</v>
       </c>
       <c r="C2">
-        <v>7.079516359081339</v>
+        <v>10.68068861066842</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.26169844247173</v>
+        <v>29.2129036864554</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.689719431862343</v>
+        <v>2.09831366829516</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.84453735182456</v>
+        <v>15.34064718887255</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>21.62270149231703</v>
+        <v>15.83516455482352</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.20137136207102</v>
+        <v>16.11859275992932</v>
       </c>
       <c r="C3">
-        <v>6.82392300194945</v>
+        <v>9.888080707490744</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.35250948142855</v>
+        <v>27.0257367155419</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.693259905708472</v>
+        <v>2.109261486656918</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.64107894097801</v>
+        <v>14.21898761589667</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>21.64174064936995</v>
+        <v>15.89828624545492</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.02515504888891</v>
+        <v>15.4177588114783</v>
       </c>
       <c r="C4">
-        <v>6.664606629571034</v>
+        <v>9.379867084133824</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.77147776301505</v>
+        <v>25.6271657875124</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.695541450298191</v>
+        <v>2.116092093969804</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.51896853510846</v>
+        <v>13.53315312009284</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>21.65516783943433</v>
+        <v>15.94343782300728</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.95389361324201</v>
+        <v>15.12687338263228</v>
       </c>
       <c r="C5">
-        <v>6.599199982845853</v>
+        <v>9.167196777784111</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.5292495782045</v>
+        <v>25.04271429431286</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.696498390004387</v>
+        <v>2.118906530009758</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.46997782787656</v>
+        <v>13.29512803146876</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>21.66107488040349</v>
+        <v>15.9633476230069</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.94209696140963</v>
+        <v>15.07825673032769</v>
       </c>
       <c r="C6">
-        <v>6.588313570864923</v>
+        <v>9.131542564203917</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.48870754695591</v>
+        <v>24.94477485873893</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.696658934796372</v>
+        <v>2.119375830436816</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.46189128165816</v>
+        <v>13.25539890204307</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>21.66208199155207</v>
+        <v>15.96674215938869</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.02419163059901</v>
+        <v>15.41385707069276</v>
       </c>
       <c r="C7">
-        <v>6.663726333418224</v>
+        <v>9.377021675188363</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.76823266359479</v>
+        <v>25.61934313758588</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.695554245674172</v>
+        <v>2.116129920785668</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.51830462891288</v>
+        <v>13.52995690136964</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>21.65524574318691</v>
+        <v>15.94370034129953</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.39098135988876</v>
+        <v>16.89251331805649</v>
       </c>
       <c r="C8">
-        <v>6.99194785589312</v>
+        <v>10.41177440190942</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.95308972361363</v>
+        <v>28.46998072853552</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.690917907799909</v>
+        <v>2.102068217135209</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.77383893393437</v>
+        <v>14.96048298996445</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>21.62890479520794</v>
+        <v>15.85553978217975</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.11949922488199</v>
+        <v>19.84199842143978</v>
       </c>
       <c r="C9">
-        <v>7.612146351663402</v>
+        <v>12.27763853619334</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.09284780727973</v>
+        <v>33.64565522091164</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994148621</v>
       </c>
       <c r="G9">
-        <v>3.682675191085282</v>
+        <v>2.075171047913842</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.29445235465257</v>
+        <v>17.58964296880604</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>21.59109871967752</v>
+        <v>15.7383591261801</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.65429785228634</v>
+        <v>21.85986069010527</v>
       </c>
       <c r="C10">
-        <v>8.048115177467672</v>
+        <v>13.5613235885307</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>19.71240002474015</v>
+        <v>37.23928335078077</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847226</v>
       </c>
       <c r="G10">
-        <v>3.677129530861658</v>
+        <v>2.055526506272243</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.68503357643522</v>
+        <v>19.38603689387584</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.57185600491345</v>
+        <v>15.69412892730606</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.89627692052382</v>
+        <v>22.74947721624548</v>
       </c>
       <c r="C11">
-        <v>8.241224211208987</v>
+        <v>14.12970528405957</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.4082400822486</v>
+        <v>38.84065279817686</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.14805722232853</v>
       </c>
       <c r="G11">
-        <v>3.674715878970088</v>
+        <v>2.046534920282072</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.86367167520345</v>
+        <v>20.17790692411198</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.56497437265686</v>
+        <v>15.68519990108669</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.98762522923459</v>
+        <v>23.08268833823522</v>
       </c>
       <c r="C12">
-        <v>8.313532704111482</v>
+        <v>14.3430312317695</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>20.66589358788439</v>
+        <v>39.44346288329961</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>3.673817457064806</v>
+        <v>2.043114013696104</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.93138976450192</v>
+        <v>20.47452482754013</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.56263921538601</v>
+        <v>15.68363724685226</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.96796584376084</v>
+        <v>23.01108122778285</v>
       </c>
       <c r="C13">
-        <v>8.297997134408986</v>
+        <v>14.29716661745227</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>20.61066273241322</v>
+        <v>39.31377506910802</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.674010257351394</v>
+        <v>2.043851621977736</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.91680331172749</v>
+        <v>20.41078022751953</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.56313006577616</v>
+        <v>15.68388922321616</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.90379842482883</v>
+        <v>22.77696161377686</v>
       </c>
       <c r="C14">
-        <v>8.247189820904259</v>
+        <v>14.14729186817605</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>20.42955435035663</v>
+        <v>38.89031063530312</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503956</v>
       </c>
       <c r="G14">
-        <v>3.674641653742612</v>
+        <v>2.046253851921237</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.86924182015463</v>
+        <v>20.20237241775066</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.56477682228405</v>
+        <v>15.68503357741008</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.86445428022691</v>
+        <v>22.63309225417974</v>
       </c>
       <c r="C15">
-        <v>8.215960516906041</v>
+        <v>14.05525162019957</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.31785996870638</v>
+        <v>38.63049815003144</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154514</v>
       </c>
       <c r="G15">
-        <v>3.675030427344273</v>
+        <v>2.047722941653842</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.84011643087484</v>
+        <v>20.07430671137149</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.56582081675903</v>
+        <v>15.68597812893663</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.6384493565478</v>
+        <v>21.80118530485203</v>
       </c>
       <c r="C16">
-        <v>8.035384117888945</v>
+        <v>13.52389220588763</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>19.66610523485372</v>
+        <v>37.13405643371208</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>3.677289454393995</v>
+        <v>2.056112360201682</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.67337277194686</v>
+        <v>19.33380914583147</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.57234354002378</v>
+        <v>15.69495482366149</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.49939853077789</v>
+        <v>21.2838503933065</v>
       </c>
       <c r="C17">
-        <v>7.923219666539645</v>
+        <v>13.19415049606284</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.25582418507218</v>
+        <v>36.20827782714939</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>3.678703156694513</v>
+        <v>2.061239557724136</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.57127922405659</v>
+        <v>18.8733145132422</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>21.57682560526221</v>
+        <v>15.70346720571163</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.41930293789333</v>
+        <v>20.98359941662386</v>
       </c>
       <c r="C18">
-        <v>7.858218237274427</v>
+        <v>13.00300315120011</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.01598932819554</v>
+        <v>35.67256775512844</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239627</v>
       </c>
       <c r="G18">
-        <v>3.679526556283018</v>
+        <v>2.064183947563833</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.51265202941681</v>
+        <v>18.60604006745432</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>21.57957967625559</v>
+        <v>15.70940244218686</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.39216683479216</v>
+        <v>20.88146576093223</v>
       </c>
       <c r="C19">
-        <v>7.836128361074109</v>
+        <v>12.93801906220415</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>18.93412268391262</v>
+        <v>35.49059805074054</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.1517249415007</v>
       </c>
       <c r="G19">
-        <v>3.679807113469031</v>
+        <v>2.06518029394384</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.49282011832209</v>
+        <v>18.51512058196156</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>21.58054235527004</v>
+        <v>15.71158462009595</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.5142135773167</v>
+        <v>21.33919764945745</v>
       </c>
       <c r="C20">
-        <v>7.935210725689346</v>
+        <v>13.22940390854088</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.29989771644986</v>
+        <v>36.30715444387913</v>
       </c>
       <c r="F20">
-        <v>20.2495528364879</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>3.678551603018756</v>
+        <v>2.06069429279432</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.58213798201347</v>
+        <v>18.92258173358348</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>21.57633024402872</v>
+        <v>15.70245208693163</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.92265439934251</v>
+        <v>22.84582415819477</v>
       </c>
       <c r="C21">
-        <v>8.262135851364217</v>
+        <v>14.19136256248071</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>20.48290864808347</v>
+        <v>39.01477917238537</v>
       </c>
       <c r="F21">
-        <v>21.46857628470567</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>3.674455775492151</v>
+        <v>2.0455487640013</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.88321035751948</v>
+        <v>20.26367146733843</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.56428576889477</v>
+        <v>15.68464626553695</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.18789824984568</v>
+        <v>23.80935954146622</v>
       </c>
       <c r="C22">
-        <v>8.471008425442209</v>
+        <v>14.80913626548749</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.22201603353881</v>
+        <v>40.76415911044782</v>
       </c>
       <c r="F22">
-        <v>22.22866616901555</v>
+        <v>40.81974568026786</v>
       </c>
       <c r="G22">
-        <v>3.67186965033526</v>
+        <v>2.035552250902281</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.08036708830419</v>
+        <v>21.12146438171284</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>21.55799297205185</v>
+        <v>15.6837314033072</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.04651828446485</v>
+        <v>23.29688240272911</v>
       </c>
       <c r="C23">
-        <v>8.359987915213924</v>
+        <v>14.48029272548643</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>20.83064513180085</v>
+        <v>39.83186930537558</v>
       </c>
       <c r="F23">
-        <v>21.82633154475864</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>3.673241648846009</v>
+        <v>2.040899602091772</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.97512675840279</v>
+        <v>20.66520554298643</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.56120656221926</v>
+        <v>15.68316049913951</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.50751616527185</v>
+        <v>21.31418399380503</v>
       </c>
       <c r="C24">
-        <v>7.929791171687558</v>
+        <v>13.2134707689366</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.27998440644598</v>
+        <v>36.262463213506</v>
       </c>
       <c r="F24">
-        <v>20.22900810905294</v>
+        <v>36.85121910575441</v>
       </c>
       <c r="G24">
-        <v>3.678620087275534</v>
+        <v>2.060940816776359</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.57722852146893</v>
+        <v>18.9003159322914</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>21.57655364479955</v>
+        <v>15.70290779403413</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.92206605213655</v>
+        <v>19.0714617038026</v>
       </c>
       <c r="C25">
-        <v>7.447471229087428</v>
+        <v>11.78917908035202</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.5306229213648</v>
+        <v>32.28573490719489</v>
       </c>
       <c r="F25">
-        <v>18.34778573295697</v>
+        <v>33.19272459126707</v>
       </c>
       <c r="G25">
-        <v>3.684814923419621</v>
+        <v>2.082402951188537</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.15191702507185</v>
+        <v>16.90335039638429</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21.59983424328531</v>
+        <v>15.76334405273164</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_60/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.31849859377856</v>
+        <v>24.03915181184025</v>
       </c>
       <c r="C2">
-        <v>10.68068861066842</v>
+        <v>14.53162557214084</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>29.2129036864554</v>
+        <v>8.865967909441538</v>
       </c>
       <c r="F2">
-        <v>30.27884324296195</v>
+        <v>29.21242918249063</v>
       </c>
       <c r="G2">
-        <v>2.09831366829516</v>
+        <v>32.14187910355404</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.289163155514099</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.948592123127856</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.87481242256536</v>
       </c>
       <c r="K2">
-        <v>15.34064718887255</v>
+        <v>16.81502405932046</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.478454345383166</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.83516455482352</v>
+        <v>9.15709113587622</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.11859275992932</v>
+        <v>22.46997112021976</v>
       </c>
       <c r="C3">
-        <v>9.888080707490744</v>
+        <v>13.69838234457849</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.0257367155419</v>
+        <v>8.663659451905442</v>
       </c>
       <c r="F3">
-        <v>28.1630198432675</v>
+        <v>28.39843343649184</v>
       </c>
       <c r="G3">
-        <v>2.109261486656918</v>
+        <v>31.1643693787212</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.556623717010351</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.167723570730827</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.8054048059158</v>
       </c>
       <c r="K3">
-        <v>14.21898761589667</v>
+        <v>16.84000871146471</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.440506976749669</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.89828624545492</v>
+        <v>8.774693039306866</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.4177588114783</v>
+        <v>21.44989326678861</v>
       </c>
       <c r="C4">
-        <v>9.379867084133824</v>
+        <v>13.16369262086722</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>25.6271657875124</v>
+        <v>8.536538367981917</v>
       </c>
       <c r="F4">
-        <v>26.79314218379246</v>
+        <v>27.89515741550405</v>
       </c>
       <c r="G4">
-        <v>2.116092093969804</v>
+        <v>30.56450953575273</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.726371466158859</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.307255513270087</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.76669781347678</v>
       </c>
       <c r="K4">
-        <v>13.53315312009284</v>
+        <v>16.86089939280549</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.416093880531968</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.94343782300728</v>
+        <v>8.532807644099472</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.12687338263228</v>
+        <v>21.02000088091957</v>
       </c>
       <c r="C5">
-        <v>9.167196777784111</v>
+        <v>12.94703340494518</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.04271429431286</v>
+        <v>8.484204210773399</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>27.67544104793736</v>
       </c>
       <c r="G5">
-        <v>2.118906530009758</v>
+        <v>30.28965879656689</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.797319288917043</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.368143133595933</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.74622817638203</v>
       </c>
       <c r="K5">
-        <v>13.29512803146876</v>
+        <v>16.85977284742986</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.406023852531123</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.9633476230069</v>
+        <v>8.435758491804682</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.07825673032769</v>
+        <v>20.94780301105905</v>
       </c>
       <c r="C6">
-        <v>9.131542564203917</v>
+        <v>12.91926300269666</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24.94477485873893</v>
+        <v>8.475711620965521</v>
       </c>
       <c r="F6">
-        <v>26.12018204701072</v>
+        <v>27.62181154845777</v>
       </c>
       <c r="G6">
-        <v>2.119375830436816</v>
+        <v>30.20644642778451</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.809621895318538</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.381868577389334</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.73598055246689</v>
       </c>
       <c r="K6">
-        <v>13.25539890204307</v>
+        <v>16.84627545632726</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.404535286138707</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.96674215938869</v>
+        <v>8.423474755456605</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.41385707069276</v>
+        <v>21.44425167661593</v>
       </c>
       <c r="C7">
-        <v>9.377021675188363</v>
+        <v>13.18369495162148</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25.61934313758588</v>
+        <v>8.536491419662617</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>27.84591903861351</v>
       </c>
       <c r="G7">
-        <v>2.116129920785668</v>
+        <v>30.45913421368481</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.728491066831185</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.317474661017097</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.74761600892152</v>
       </c>
       <c r="K7">
-        <v>13.52995690136964</v>
+        <v>16.82433566503311</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.416540362886983</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.94370034129953</v>
+        <v>8.542076880447198</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.89251331805649</v>
+        <v>23.50986278007918</v>
       </c>
       <c r="C8">
-        <v>10.41177440190942</v>
+        <v>14.27749657187397</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>28.46998072853552</v>
+        <v>8.797669719178</v>
       </c>
       <c r="F8">
-        <v>29.56389055882491</v>
+        <v>28.87358859515077</v>
       </c>
       <c r="G8">
-        <v>2.102068217135209</v>
+        <v>31.67541783338658</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.381709694602717</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.03534767800757</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.82548132430915</v>
       </c>
       <c r="K8">
-        <v>14.96048298996445</v>
+        <v>16.77429677820462</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.466530190092752</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.85553978217975</v>
+        <v>9.040039368779421</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.84199842143978</v>
+        <v>27.15410480002483</v>
       </c>
       <c r="C9">
-        <v>12.27763853619334</v>
+        <v>16.20104112919189</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>33.64565522091164</v>
+        <v>9.285684499518865</v>
       </c>
       <c r="F9">
-        <v>34.45877994148621</v>
+        <v>30.93024193112504</v>
       </c>
       <c r="G9">
-        <v>2.075171047913842</v>
+        <v>34.2254906429817</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.742291277032546</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.505273248762496</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.0436868492299</v>
       </c>
       <c r="K9">
-        <v>17.58964296880604</v>
+        <v>16.78880122242298</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.554373393913177</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.7383591261801</v>
+        <v>9.93927627151637</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.85986069010527</v>
+        <v>29.57000729301517</v>
       </c>
       <c r="C10">
-        <v>13.5613235885307</v>
+        <v>17.55392600001088</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>37.23928335078077</v>
+        <v>9.561343533485156</v>
       </c>
       <c r="F10">
-        <v>37.72874519847226</v>
+        <v>32.11327703729686</v>
       </c>
       <c r="G10">
-        <v>2.055526506272243</v>
+        <v>35.67069489537069</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.810112334557259</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.807433637625349</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.1425166289506</v>
       </c>
       <c r="K10">
-        <v>19.38603689387584</v>
+        <v>16.67514726511593</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.62449248586713</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.69412892730606</v>
+        <v>10.47671348585781</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.74947721624548</v>
+        <v>30.58770301610511</v>
       </c>
       <c r="C11">
-        <v>14.12970528405957</v>
+        <v>18.54476999250697</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>38.84065279817686</v>
+        <v>9.154749339384178</v>
       </c>
       <c r="F11">
-        <v>39.14805722232853</v>
+        <v>30.2296339414317</v>
       </c>
       <c r="G11">
-        <v>2.046534920282072</v>
+        <v>33.03180185798006</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.785594484366283</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.920314260412241</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.5249832185567</v>
       </c>
       <c r="K11">
-        <v>20.17790692411198</v>
+        <v>15.3833917125261</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.794874499866765</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.68519990108669</v>
+        <v>9.976644419761465</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.08268833823522</v>
+        <v>30.95720700934927</v>
       </c>
       <c r="C12">
-        <v>14.3430312317695</v>
+        <v>19.08449577111802</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>39.44346288329961</v>
+        <v>8.852050033732842</v>
       </c>
       <c r="F12">
-        <v>39.67592721363783</v>
+        <v>28.43297299545935</v>
       </c>
       <c r="G12">
-        <v>2.043114013696104</v>
+        <v>30.59635163802822</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.091135052605898</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.941353128296286</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.00787013424932</v>
       </c>
       <c r="K12">
-        <v>20.47452482754013</v>
+        <v>14.40312717551094</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.977726786684125</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.68363724685226</v>
+        <v>9.428434389005105</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.01108122778285</v>
+        <v>30.86255518504737</v>
       </c>
       <c r="C13">
-        <v>14.29716661745227</v>
+        <v>19.35232868669775</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>39.31377506910802</v>
+        <v>8.615675493982817</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>26.50341707640359</v>
       </c>
       <c r="G13">
-        <v>2.043851621977736</v>
+        <v>27.97569171518482</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.447626713692415</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.897291386223126</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.507618898306514</v>
       </c>
       <c r="K13">
-        <v>20.41078022751953</v>
+        <v>13.56213547824759</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.175738332786486</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.68388922321616</v>
+        <v>8.813375245797046</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.77696161377686</v>
+        <v>30.5852025277376</v>
       </c>
       <c r="C14">
-        <v>14.14729186817605</v>
+        <v>19.42678337008089</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>38.89031063530312</v>
+        <v>8.49790763994246</v>
       </c>
       <c r="F14">
-        <v>39.19167637503956</v>
+        <v>25.0756265305455</v>
       </c>
       <c r="G14">
-        <v>2.046253851921237</v>
+        <v>26.01394526412914</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.480570029706902</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.838407366683389</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.163885997587379</v>
       </c>
       <c r="K14">
-        <v>20.20237241775066</v>
+        <v>13.05003859894084</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.325688397789138</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.68503357741008</v>
+        <v>8.35218090412768</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.63309225417974</v>
+        <v>30.41704189857666</v>
       </c>
       <c r="C15">
-        <v>14.05525162019957</v>
+        <v>19.39392843052551</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>38.63049815003144</v>
+        <v>8.469293795081551</v>
       </c>
       <c r="F15">
-        <v>38.96319309154514</v>
+        <v>24.68683451744553</v>
       </c>
       <c r="G15">
-        <v>2.047722941653842</v>
+        <v>25.46541110966012</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.720658647551707</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.811190575713628</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.078860665735606</v>
       </c>
       <c r="K15">
-        <v>20.07430671137149</v>
+        <v>12.94400510540515</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.360006003645005</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.68597812893663</v>
+        <v>8.227933333636313</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.80118530485203</v>
+        <v>29.44698579646979</v>
       </c>
       <c r="C16">
-        <v>13.52389220588763</v>
+        <v>18.81809830431168</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>37.13405643371208</v>
+        <v>8.387612538646138</v>
       </c>
       <c r="F16">
-        <v>37.63463543028804</v>
+        <v>24.48133884519863</v>
       </c>
       <c r="G16">
-        <v>2.056112360201682</v>
+        <v>25.18728845902489</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.523564044938249</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.671560222308963</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.124350289539922</v>
       </c>
       <c r="K16">
-        <v>19.33380914583147</v>
+        <v>13.16222239406965</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.286683938368569</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.69495482366149</v>
+        <v>8.103041864601837</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.2838503933065</v>
+        <v>28.84037599282741</v>
       </c>
       <c r="C17">
-        <v>13.19415049606284</v>
+        <v>18.32546826774698</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>36.20827782714939</v>
+        <v>8.377853556395909</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>25.09583942744084</v>
       </c>
       <c r="G17">
-        <v>2.061239557724136</v>
+        <v>26.04802366854731</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.794883399847555</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.595929400976516</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.340248544556328</v>
       </c>
       <c r="K17">
-        <v>18.8733145132422</v>
+        <v>13.58530246267665</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.146537894264482</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.70346720571163</v>
+        <v>8.25847954732097</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.98359941662386</v>
+        <v>28.49241067858516</v>
       </c>
       <c r="C18">
-        <v>13.00300315120011</v>
+        <v>17.84036024633531</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>35.67256775512844</v>
+        <v>8.489680333450579</v>
       </c>
       <c r="F18">
-        <v>36.31710943239627</v>
+        <v>26.52217015073608</v>
       </c>
       <c r="G18">
-        <v>2.064183947563833</v>
+        <v>28.05052140565156</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.547056565636875</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.564525965485835</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.743822070537586</v>
       </c>
       <c r="K18">
-        <v>18.60604006745432</v>
+        <v>14.2909938125227</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.951309928708236</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.70940244218686</v>
+        <v>8.672232045243575</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.88146576093223</v>
+        <v>28.38353108183382</v>
       </c>
       <c r="C19">
-        <v>12.93801906220415</v>
+        <v>17.44452229797463</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>35.49059805074054</v>
+        <v>8.775304058749851</v>
       </c>
       <c r="F19">
-        <v>36.1517249415007</v>
+        <v>28.4248589183411</v>
       </c>
       <c r="G19">
-        <v>2.06518029394384</v>
+        <v>30.6439996027696</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.060059644899664</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.58419769659936</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.24611011933859</v>
       </c>
       <c r="K19">
-        <v>18.51512058196156</v>
+        <v>15.17198262623318</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.768152989629241</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.71158462009595</v>
+        <v>9.281960578713218</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.33919764945745</v>
+        <v>28.95302139637027</v>
       </c>
       <c r="C20">
-        <v>13.22940390854088</v>
+        <v>17.26588017431903</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>36.30715444387913</v>
+        <v>9.488259939330925</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>31.66625136405707</v>
       </c>
       <c r="G20">
-        <v>2.06069429279432</v>
+        <v>35.00084585820962</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.694741119782884</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.72657357624632</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.05620654134217</v>
       </c>
       <c r="K20">
-        <v>18.92258173358348</v>
+        <v>16.5854698951573</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.610096352970401</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.70245208693163</v>
+        <v>10.36143413328095</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.84582415819477</v>
+        <v>30.72305378941421</v>
       </c>
       <c r="C21">
-        <v>14.19136256248071</v>
+        <v>18.18656575988132</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>39.01477917238537</v>
+        <v>9.803080617674816</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>33.01581107234959</v>
       </c>
       <c r="G21">
-        <v>2.0455487640013</v>
+        <v>36.74159757835218</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.029564069942403</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.000255827702538</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.26717966805483</v>
       </c>
       <c r="K21">
-        <v>20.26367146733843</v>
+        <v>16.75258706998464</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.645216854804809</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.68464626553695</v>
+        <v>10.88948442199459</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.80935954146622</v>
+        <v>31.82929678743126</v>
       </c>
       <c r="C22">
-        <v>14.80913626548749</v>
+        <v>18.76878358048592</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>40.76415911044782</v>
+        <v>9.970006963422131</v>
       </c>
       <c r="F22">
-        <v>40.81974568026786</v>
+        <v>33.79746439036385</v>
       </c>
       <c r="G22">
-        <v>2.035552250902281</v>
+        <v>37.79003482413339</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.240980120604962</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.170283425845026</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.39403504226009</v>
       </c>
       <c r="K22">
-        <v>21.12146438171284</v>
+        <v>16.8438450633814</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5.671289884612135</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.6837314033072</v>
+        <v>11.17084510070779</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.29688240272911</v>
+        <v>31.24391418615631</v>
       </c>
       <c r="C23">
-        <v>14.48029272548643</v>
+        <v>18.43944336011919</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>39.83186930537558</v>
+        <v>9.88042483354546</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>33.42683389722657</v>
       </c>
       <c r="G23">
-        <v>2.040899602091772</v>
+        <v>37.32973935549131</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.129522507025144</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.075778454236068</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.34653616379005</v>
       </c>
       <c r="K23">
-        <v>20.66520554298643</v>
+        <v>16.83617498794102</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5.656251207428274</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.68316049913951</v>
+        <v>11.0115035606513</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.31418399380503</v>
+        <v>28.9259790127206</v>
       </c>
       <c r="C24">
-        <v>13.2134707689366</v>
+        <v>17.18271356352332</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>36.262463213506</v>
+        <v>9.537574272291589</v>
       </c>
       <c r="F24">
-        <v>36.85121910575441</v>
+        <v>31.93542165397745</v>
       </c>
       <c r="G24">
-        <v>2.060940816776359</v>
+        <v>35.4249869949739</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.698503090539832</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.719542050873326</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.14403373912499</v>
       </c>
       <c r="K24">
-        <v>18.9003159322914</v>
+        <v>16.75859623286835</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.599182531729414</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.70290779403413</v>
+        <v>10.40693628191678</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.0714617038026</v>
+        <v>26.20869308781585</v>
       </c>
       <c r="C25">
-        <v>11.78917908035202</v>
+        <v>15.73596776400983</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>32.28573490719489</v>
+        <v>9.157248302626499</v>
       </c>
       <c r="F25">
-        <v>33.19272459126707</v>
+        <v>30.3027196495938</v>
       </c>
       <c r="G25">
-        <v>2.082402951188537</v>
+        <v>33.37092220698246</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.912747578630601</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.663048421859175</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.94811610957708</v>
       </c>
       <c r="K25">
-        <v>16.90335039638429</v>
+        <v>16.71409503136885</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.533112778388054</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.76334405273164</v>
+        <v>9.719724980570049</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_60/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.03915181184025</v>
+        <v>24.06054317381862</v>
       </c>
       <c r="C2">
-        <v>14.53162557214084</v>
+        <v>14.87328363167682</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.865967909441538</v>
+        <v>8.906896004166482</v>
       </c>
       <c r="F2">
-        <v>29.21242918249063</v>
+        <v>28.03023619620721</v>
       </c>
       <c r="G2">
-        <v>32.14187910355404</v>
+        <v>29.09438943558584</v>
       </c>
       <c r="H2">
-        <v>2.289163155514099</v>
+        <v>2.20320891171854</v>
       </c>
       <c r="I2">
-        <v>2.948592123127856</v>
+        <v>2.829335844020366</v>
       </c>
       <c r="J2">
-        <v>10.87481242256536</v>
+        <v>10.72831397514787</v>
       </c>
       <c r="K2">
-        <v>16.81502405932046</v>
+        <v>15.67890394606539</v>
       </c>
       <c r="L2">
-        <v>5.478454345383166</v>
+        <v>13.05502242975589</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.17559958688519</v>
       </c>
       <c r="N2">
-        <v>9.15709113587622</v>
+        <v>5.447047248423588</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>9.485929562460283</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.46997112021976</v>
+        <v>22.46545365718054</v>
       </c>
       <c r="C3">
-        <v>13.69838234457849</v>
+        <v>13.96269403692707</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.663659451905442</v>
+        <v>8.72293802810777</v>
       </c>
       <c r="F3">
-        <v>28.39843343649184</v>
+        <v>27.34913271982148</v>
       </c>
       <c r="G3">
-        <v>31.1643693787212</v>
+        <v>28.41810106284835</v>
       </c>
       <c r="H3">
-        <v>2.556623717010351</v>
+        <v>2.448852234710214</v>
       </c>
       <c r="I3">
-        <v>3.167723570730827</v>
+        <v>3.019958476317487</v>
       </c>
       <c r="J3">
-        <v>10.8054048059158</v>
+        <v>10.66604868004186</v>
       </c>
       <c r="K3">
-        <v>16.84000871146471</v>
+        <v>15.79917593345331</v>
       </c>
       <c r="L3">
-        <v>5.440506976749669</v>
+        <v>13.20874464968467</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.21530024686158</v>
       </c>
       <c r="N3">
-        <v>8.774693039306866</v>
+        <v>5.392359509292276</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>9.084242974360148</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.44989326678861</v>
+        <v>21.44062652455647</v>
       </c>
       <c r="C4">
-        <v>13.16369262086722</v>
+        <v>13.37710686820673</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.536538367981917</v>
+        <v>8.607558540062355</v>
       </c>
       <c r="F4">
-        <v>27.89515741550405</v>
+        <v>26.92838472431462</v>
       </c>
       <c r="G4">
-        <v>30.56450953575273</v>
+        <v>28.01027255864688</v>
       </c>
       <c r="H4">
-        <v>2.726371466158859</v>
+        <v>2.604879978073603</v>
       </c>
       <c r="I4">
-        <v>3.307255513270087</v>
+        <v>3.141727381537926</v>
       </c>
       <c r="J4">
-        <v>10.76669781347678</v>
+        <v>10.62842519152468</v>
       </c>
       <c r="K4">
-        <v>16.86089939280549</v>
+        <v>15.87668888065172</v>
       </c>
       <c r="L4">
-        <v>5.416093880531968</v>
+        <v>13.30259648062998</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.26143857761202</v>
       </c>
       <c r="N4">
-        <v>8.532807644099472</v>
+        <v>5.357822091657623</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>8.830441731806255</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.02000088091957</v>
+        <v>21.00838356458969</v>
       </c>
       <c r="C5">
-        <v>12.94703340494518</v>
+        <v>13.13859627612119</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.484204210773399</v>
+        <v>8.560135577301152</v>
       </c>
       <c r="F5">
-        <v>27.67544104793736</v>
+        <v>26.74375748266998</v>
       </c>
       <c r="G5">
-        <v>30.28965879656689</v>
+        <v>27.81793104212385</v>
       </c>
       <c r="H5">
-        <v>2.797319288917043</v>
+        <v>2.670120262340364</v>
       </c>
       <c r="I5">
-        <v>3.368143133595933</v>
+        <v>3.195766828480442</v>
       </c>
       <c r="J5">
-        <v>10.74622817638203</v>
+        <v>10.60820365988114</v>
       </c>
       <c r="K5">
-        <v>16.85977284742986</v>
+        <v>15.89973270710086</v>
       </c>
       <c r="L5">
-        <v>5.406023852531123</v>
+        <v>13.33238656999339</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.27972716419009</v>
       </c>
       <c r="N5">
-        <v>8.435758491804682</v>
+        <v>5.343838876995917</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>8.728257830172788</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.94780301105905</v>
+        <v>20.93575311606072</v>
       </c>
       <c r="C6">
-        <v>12.91926300269666</v>
+        <v>13.10681946060776</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.475711620965521</v>
+        <v>8.552468890007187</v>
       </c>
       <c r="F6">
-        <v>27.62181154845777</v>
+        <v>26.69755458711167</v>
       </c>
       <c r="G6">
-        <v>30.20644642778451</v>
+        <v>27.75182703303976</v>
       </c>
       <c r="H6">
-        <v>2.809621895318538</v>
+        <v>2.681432526099899</v>
       </c>
       <c r="I6">
-        <v>3.381868577389334</v>
+        <v>3.208960459087563</v>
       </c>
       <c r="J6">
-        <v>10.73598055246689</v>
+        <v>10.59870295079335</v>
       </c>
       <c r="K6">
-        <v>16.84627545632726</v>
+        <v>15.89212833808524</v>
       </c>
       <c r="L6">
-        <v>5.404535286138707</v>
+        <v>13.32716942706206</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.27594552332138</v>
       </c>
       <c r="N6">
-        <v>8.423474755456605</v>
+        <v>5.341913610813842</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>8.7147776219725</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.44425167661593</v>
+        <v>21.43494355712162</v>
       </c>
       <c r="C7">
-        <v>13.18369495162148</v>
+        <v>13.38210115968347</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.536491419662617</v>
+        <v>8.611702299830105</v>
       </c>
       <c r="F7">
-        <v>27.84591903861351</v>
+        <v>26.86298128411008</v>
       </c>
       <c r="G7">
-        <v>30.45913421368481</v>
+        <v>27.97266425354768</v>
       </c>
       <c r="H7">
-        <v>2.728491066831185</v>
+        <v>2.607484457803115</v>
       </c>
       <c r="I7">
-        <v>3.317474661017097</v>
+        <v>3.154182258907944</v>
       </c>
       <c r="J7">
-        <v>10.74761600892152</v>
+        <v>10.56072849237273</v>
       </c>
       <c r="K7">
-        <v>16.82433566503311</v>
+        <v>15.83131940957493</v>
       </c>
       <c r="L7">
-        <v>5.416540362886983</v>
+        <v>13.26328569846353</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.23236975755502</v>
       </c>
       <c r="N7">
-        <v>8.542076880447198</v>
+        <v>5.359477356533194</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>8.841620693749375</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.50986278007918</v>
+        <v>23.52088736706933</v>
       </c>
       <c r="C8">
-        <v>14.27749657187397</v>
+        <v>14.54927753593443</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.797669719178</v>
+        <v>8.858328449698968</v>
       </c>
       <c r="F8">
-        <v>28.87358859515077</v>
+        <v>27.67545960291892</v>
       </c>
       <c r="G8">
-        <v>31.67541783338658</v>
+        <v>28.92902797367216</v>
       </c>
       <c r="H8">
-        <v>2.381709694602717</v>
+        <v>2.290209646034463</v>
       </c>
       <c r="I8">
-        <v>3.03534767800757</v>
+        <v>2.910618428354211</v>
       </c>
       <c r="J8">
-        <v>10.82548132430915</v>
+        <v>10.51981310919631</v>
       </c>
       <c r="K8">
-        <v>16.77429677820462</v>
+        <v>15.6315078359381</v>
       </c>
       <c r="L8">
-        <v>5.466530190092752</v>
+        <v>13.03638042568023</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.12223970004784</v>
       </c>
       <c r="N8">
-        <v>9.040039368779421</v>
+        <v>5.432681081221577</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>9.370274144970308</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.15410480002483</v>
+        <v>27.17661454246105</v>
       </c>
       <c r="C9">
-        <v>16.20104112919189</v>
+        <v>16.64161587851505</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.285684499518865</v>
+        <v>9.30600518713168</v>
       </c>
       <c r="F9">
-        <v>30.93024193112504</v>
+        <v>29.39056773360002</v>
       </c>
       <c r="G9">
-        <v>34.2254906429817</v>
+        <v>30.80506360865635</v>
       </c>
       <c r="H9">
-        <v>1.742291277032546</v>
+        <v>1.704090644826288</v>
       </c>
       <c r="I9">
-        <v>2.505273248762496</v>
+        <v>2.516239857319023</v>
       </c>
       <c r="J9">
-        <v>11.0436868492299</v>
+        <v>10.65666815831683</v>
       </c>
       <c r="K9">
-        <v>16.78880122242298</v>
+        <v>15.3788918156941</v>
       </c>
       <c r="L9">
-        <v>5.554373393913177</v>
+        <v>12.67631341169064</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.15865350948292</v>
       </c>
       <c r="N9">
-        <v>9.93927627151637</v>
+        <v>5.56352537579325</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>10.31904100731695</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.57000729301517</v>
+        <v>29.57447333562016</v>
       </c>
       <c r="C10">
-        <v>17.55392600001088</v>
+        <v>18.02789181867525</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.561343533485156</v>
+        <v>9.573413446668578</v>
       </c>
       <c r="F10">
-        <v>32.11327703729686</v>
+        <v>30.25954758620895</v>
       </c>
       <c r="G10">
-        <v>35.67069489537069</v>
+        <v>32.16915473133209</v>
       </c>
       <c r="H10">
-        <v>1.810112334557259</v>
+        <v>1.808272922475958</v>
       </c>
       <c r="I10">
-        <v>2.807433637625349</v>
+        <v>2.821914009535744</v>
       </c>
       <c r="J10">
-        <v>11.1425166289506</v>
+        <v>10.42182412678398</v>
       </c>
       <c r="K10">
-        <v>16.67514726511593</v>
+        <v>15.01646504606758</v>
       </c>
       <c r="L10">
-        <v>5.62449248586713</v>
+        <v>12.26962359424554</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.13201143079139</v>
       </c>
       <c r="N10">
-        <v>10.47671348585781</v>
+        <v>5.677043117854077</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>10.89786250801978</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.58770301610511</v>
+        <v>30.58461904083836</v>
       </c>
       <c r="C11">
-        <v>18.54476999250697</v>
+        <v>18.83030587794584</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.154749339384178</v>
+        <v>9.16341477439877</v>
       </c>
       <c r="F11">
-        <v>30.2296339414317</v>
+        <v>28.32456685240406</v>
       </c>
       <c r="G11">
-        <v>33.03180185798006</v>
+        <v>30.53868749730403</v>
       </c>
       <c r="H11">
-        <v>2.785594484366283</v>
+        <v>2.774647467176779</v>
       </c>
       <c r="I11">
-        <v>2.920314260412241</v>
+        <v>2.918139036736273</v>
       </c>
       <c r="J11">
-        <v>10.5249832185567</v>
+        <v>9.391470581732763</v>
       </c>
       <c r="K11">
-        <v>15.3833917125261</v>
+        <v>13.80529394811105</v>
       </c>
       <c r="L11">
-        <v>5.794874499866765</v>
+        <v>11.38964699273114</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>9.229976501785124</v>
       </c>
       <c r="N11">
-        <v>9.976644419761465</v>
+        <v>5.922986075349415</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>10.37992776994431</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.95720700934927</v>
+        <v>30.95218703802016</v>
       </c>
       <c r="C12">
-        <v>19.08449577111802</v>
+        <v>19.23928624903362</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.852050033732842</v>
+        <v>8.833266538360231</v>
       </c>
       <c r="F12">
-        <v>28.43297299545935</v>
+        <v>26.61374350467016</v>
       </c>
       <c r="G12">
-        <v>30.59635163802822</v>
+        <v>28.77448536025042</v>
       </c>
       <c r="H12">
-        <v>4.091135052605898</v>
+        <v>4.08230814286857</v>
       </c>
       <c r="I12">
-        <v>2.941353128296286</v>
+        <v>2.934288669390349</v>
       </c>
       <c r="J12">
-        <v>10.00787013424932</v>
+        <v>8.801270668312565</v>
       </c>
       <c r="K12">
-        <v>14.40312717551094</v>
+        <v>13.00317797767673</v>
       </c>
       <c r="L12">
-        <v>5.977726786684125</v>
+        <v>10.8563497747493</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.562117783966412</v>
       </c>
       <c r="N12">
-        <v>9.428434389005105</v>
+        <v>6.148239212587347</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>9.799267255917917</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.86255518504737</v>
+        <v>30.86028879424588</v>
       </c>
       <c r="C13">
-        <v>19.35232868669775</v>
+        <v>19.43697701971725</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.615675493982817</v>
+        <v>8.557844080635352</v>
       </c>
       <c r="F13">
-        <v>26.50341707640359</v>
+        <v>24.93183262868714</v>
       </c>
       <c r="G13">
-        <v>27.97569171518482</v>
+        <v>26.49056917431756</v>
       </c>
       <c r="H13">
-        <v>5.447626713692415</v>
+        <v>5.451158287078226</v>
       </c>
       <c r="I13">
-        <v>2.897291386223126</v>
+        <v>2.89693126396046</v>
       </c>
       <c r="J13">
-        <v>9.507618898306514</v>
+        <v>8.53832990646851</v>
       </c>
       <c r="K13">
-        <v>13.56213547824759</v>
+        <v>12.44629558227133</v>
       </c>
       <c r="L13">
-        <v>6.175738332786486</v>
+        <v>10.51435042612212</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.034938404754289</v>
       </c>
       <c r="N13">
-        <v>8.813375245797046</v>
+        <v>6.355442026273474</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>9.131896276249268</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.5852025277376</v>
+        <v>30.58686488484482</v>
       </c>
       <c r="C14">
-        <v>19.42678337008089</v>
+        <v>19.48768271918578</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.49790763994246</v>
+        <v>8.417516945165133</v>
       </c>
       <c r="F14">
-        <v>25.0756265305455</v>
+        <v>23.74869319110223</v>
       </c>
       <c r="G14">
-        <v>26.01394526412914</v>
+        <v>24.62327881642234</v>
       </c>
       <c r="H14">
-        <v>6.480570029706902</v>
+        <v>6.481724968187025</v>
       </c>
       <c r="I14">
-        <v>2.838407366683389</v>
+        <v>2.848241826623332</v>
       </c>
       <c r="J14">
-        <v>9.163885997587379</v>
+        <v>8.474423309843262</v>
       </c>
       <c r="K14">
-        <v>13.05003859894084</v>
+        <v>12.16445571711118</v>
       </c>
       <c r="L14">
-        <v>6.325688397789138</v>
+        <v>10.34924343546408</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.736751028562177</v>
       </c>
       <c r="N14">
-        <v>8.35218090412768</v>
+        <v>6.493404215016921</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>8.625627920546346</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.41704189857666</v>
+        <v>30.42063782628624</v>
       </c>
       <c r="C15">
-        <v>19.39392843052551</v>
+        <v>19.46005352492233</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.469293795081551</v>
+        <v>8.386304834316542</v>
       </c>
       <c r="F15">
-        <v>24.68683451744553</v>
+        <v>23.45040371097391</v>
       </c>
       <c r="G15">
-        <v>25.46541110966012</v>
+        <v>24.04047879423995</v>
       </c>
       <c r="H15">
-        <v>6.720658647551707</v>
+        <v>6.72085756993437</v>
       </c>
       <c r="I15">
-        <v>2.811190575713628</v>
+        <v>2.826564371686273</v>
       </c>
       <c r="J15">
-        <v>9.078860665735606</v>
+        <v>8.505427272933629</v>
       </c>
       <c r="K15">
-        <v>12.94400510540515</v>
+        <v>12.12888479596304</v>
       </c>
       <c r="L15">
-        <v>6.360006003645005</v>
+        <v>10.33015194544544</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.685612633876533</v>
       </c>
       <c r="N15">
-        <v>8.227933333636313</v>
+        <v>6.518479582455142</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>8.48681742133715</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.44698579646979</v>
+        <v>29.4596238979383</v>
       </c>
       <c r="C16">
-        <v>18.81809830431168</v>
+        <v>18.97962450499772</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.387612538646138</v>
+        <v>8.322561259084257</v>
       </c>
       <c r="F16">
-        <v>24.48133884519863</v>
+        <v>23.49054452594878</v>
       </c>
       <c r="G16">
-        <v>25.18728845902489</v>
+        <v>23.28240297544885</v>
       </c>
       <c r="H16">
-        <v>6.523564044938249</v>
+        <v>6.518759501607745</v>
       </c>
       <c r="I16">
-        <v>2.671560222308963</v>
+        <v>2.711289343654101</v>
       </c>
       <c r="J16">
-        <v>9.124350289539922</v>
+        <v>8.95787530486273</v>
       </c>
       <c r="K16">
-        <v>13.16222239406965</v>
+        <v>12.46345803303869</v>
       </c>
       <c r="L16">
-        <v>6.286683938368569</v>
+        <v>10.54984522224069</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.911345335367537</v>
       </c>
       <c r="N16">
-        <v>8.103041864601837</v>
+        <v>6.398963065252305</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>8.334436259522256</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.84037599282741</v>
+        <v>28.85754808767038</v>
       </c>
       <c r="C17">
-        <v>18.32546826774698</v>
+        <v>18.55662614153214</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.377853556395909</v>
+        <v>8.328184292006929</v>
       </c>
       <c r="F17">
-        <v>25.09583942744084</v>
+        <v>24.13840403888789</v>
       </c>
       <c r="G17">
-        <v>26.04802366854731</v>
+        <v>23.80362716233431</v>
       </c>
       <c r="H17">
-        <v>5.794883399847555</v>
+        <v>5.786143817880063</v>
       </c>
       <c r="I17">
-        <v>2.595929400976516</v>
+        <v>2.648312204554184</v>
       </c>
       <c r="J17">
-        <v>9.340248544556328</v>
+        <v>9.310393833062919</v>
       </c>
       <c r="K17">
-        <v>13.58530246267665</v>
+        <v>12.8589872487345</v>
       </c>
       <c r="L17">
-        <v>6.146537894264482</v>
+        <v>10.81767526881579</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>8.217890307595631</v>
       </c>
       <c r="N17">
-        <v>8.25847954732097</v>
+        <v>6.23762217172905</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>8.495448649865452</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.49241067858516</v>
+        <v>28.51118977265795</v>
       </c>
       <c r="C18">
-        <v>17.84036024633531</v>
+        <v>18.15002903017176</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.489680333450579</v>
+        <v>8.452870713870404</v>
       </c>
       <c r="F18">
-        <v>26.52217015073608</v>
+        <v>25.45436709854635</v>
       </c>
       <c r="G18">
-        <v>28.05052140565156</v>
+        <v>25.41790229000386</v>
       </c>
       <c r="H18">
-        <v>4.547056565636875</v>
+        <v>4.534553123780322</v>
       </c>
       <c r="I18">
-        <v>2.564525965485835</v>
+        <v>2.620189862498857</v>
       </c>
       <c r="J18">
-        <v>9.743822070537586</v>
+        <v>9.706750467521765</v>
       </c>
       <c r="K18">
-        <v>14.2909938125227</v>
+        <v>13.42402738038052</v>
       </c>
       <c r="L18">
-        <v>5.951309928708236</v>
+        <v>11.21208565290643</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>8.677125904765465</v>
       </c>
       <c r="N18">
-        <v>8.672232045243575</v>
+        <v>6.030445888802768</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>8.939722806940415</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.38353108183382</v>
+        <v>28.4015105899121</v>
       </c>
       <c r="C19">
-        <v>17.44452229797463</v>
+        <v>17.83927534101599</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.775304058749851</v>
+        <v>8.751155883997374</v>
       </c>
       <c r="F19">
-        <v>28.4248589183411</v>
+        <v>27.16128096715003</v>
       </c>
       <c r="G19">
-        <v>30.6439996027696</v>
+        <v>27.5759309668945</v>
       </c>
       <c r="H19">
-        <v>3.060059644899664</v>
+        <v>3.043552786654113</v>
       </c>
       <c r="I19">
-        <v>2.58419769659936</v>
+        <v>2.637914410866122</v>
       </c>
       <c r="J19">
-        <v>10.24611011933859</v>
+        <v>10.122241356021</v>
       </c>
       <c r="K19">
-        <v>15.17198262623318</v>
+        <v>14.09072575130072</v>
       </c>
       <c r="L19">
-        <v>5.768152989629241</v>
+        <v>11.68393075061403</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.227129203097862</v>
       </c>
       <c r="N19">
-        <v>9.281960578713218</v>
+        <v>5.833605423348997</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>9.594902629634515</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.95302139637027</v>
+        <v>28.96325299356602</v>
       </c>
       <c r="C20">
-        <v>17.26588017431903</v>
+        <v>17.76771155287824</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.488259939330925</v>
+        <v>9.488878272725859</v>
       </c>
       <c r="F20">
-        <v>31.66625136405707</v>
+        <v>29.97279266632171</v>
       </c>
       <c r="G20">
-        <v>35.00084585820962</v>
+        <v>31.35698772657647</v>
       </c>
       <c r="H20">
-        <v>1.694741119782884</v>
+        <v>1.705248571662776</v>
       </c>
       <c r="I20">
-        <v>2.72657357624632</v>
+        <v>2.759323842917473</v>
       </c>
       <c r="J20">
-        <v>11.05620654134217</v>
+        <v>10.60280742379887</v>
       </c>
       <c r="K20">
-        <v>16.5854698951573</v>
+        <v>15.06240411836742</v>
       </c>
       <c r="L20">
-        <v>5.610096352970401</v>
+        <v>12.34199341253562</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.0931225564634</v>
       </c>
       <c r="N20">
-        <v>10.36143413328095</v>
+        <v>5.650095002668741</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>10.7607045050465</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.72305378941421</v>
+        <v>30.71431354325641</v>
       </c>
       <c r="C21">
-        <v>18.18656575988132</v>
+        <v>18.5288816923465</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.803080617674816</v>
+        <v>9.877174879898119</v>
       </c>
       <c r="F21">
-        <v>33.01581107234959</v>
+        <v>30.69833939561743</v>
       </c>
       <c r="G21">
-        <v>36.74159757835218</v>
+        <v>33.92817409642107</v>
       </c>
       <c r="H21">
-        <v>2.029564069942403</v>
+        <v>2.000022389538654</v>
       </c>
       <c r="I21">
-        <v>3.000255827702538</v>
+        <v>2.985294620115888</v>
       </c>
       <c r="J21">
-        <v>11.26717966805483</v>
+        <v>9.671940346606982</v>
       </c>
       <c r="K21">
-        <v>16.75258706998464</v>
+        <v>14.71650526423111</v>
       </c>
       <c r="L21">
-        <v>5.645216854804809</v>
+        <v>11.98818256754939</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>10.03618423630245</v>
       </c>
       <c r="N21">
-        <v>10.88948442199459</v>
+        <v>5.729837399984087</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>11.37517248093163</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.82929678743126</v>
+        <v>31.80774569849741</v>
       </c>
       <c r="C22">
-        <v>18.76878358048592</v>
+        <v>18.99377519121404</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.970006963422131</v>
+        <v>10.09933505027528</v>
       </c>
       <c r="F22">
-        <v>33.79746439036385</v>
+        <v>31.06670891310934</v>
       </c>
       <c r="G22">
-        <v>37.79003482413339</v>
+        <v>35.61235188719918</v>
       </c>
       <c r="H22">
-        <v>2.240980120604962</v>
+        <v>2.185857853075333</v>
       </c>
       <c r="I22">
-        <v>3.170283425845026</v>
+        <v>3.123508091264997</v>
       </c>
       <c r="J22">
-        <v>11.39403504226009</v>
+        <v>9.038125248200391</v>
       </c>
       <c r="K22">
-        <v>16.8438450633814</v>
+        <v>14.4578397662062</v>
       </c>
       <c r="L22">
-        <v>5.671289884612135</v>
+        <v>11.73839192909413</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.983019434884522</v>
       </c>
       <c r="N22">
-        <v>11.17084510070779</v>
+        <v>5.789661257760088</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>11.7121756897139</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.24391418615631</v>
+        <v>31.22966839720149</v>
       </c>
       <c r="C23">
-        <v>18.43944336011919</v>
+        <v>18.75470993256774</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.88042483354546</v>
+        <v>9.968989342828467</v>
       </c>
       <c r="F23">
-        <v>33.42683389722657</v>
+        <v>30.95843566598518</v>
       </c>
       <c r="G23">
-        <v>37.32973935549131</v>
+        <v>34.66812026391236</v>
       </c>
       <c r="H23">
-        <v>2.129522507025144</v>
+        <v>2.088959820709526</v>
       </c>
       <c r="I23">
-        <v>3.075778454236068</v>
+        <v>3.045538253484279</v>
       </c>
       <c r="J23">
-        <v>11.34653616379005</v>
+        <v>9.496882441757373</v>
       </c>
       <c r="K23">
-        <v>16.83617498794102</v>
+        <v>14.6656637455176</v>
       </c>
       <c r="L23">
-        <v>5.656251207428274</v>
+        <v>11.91694993232978</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>10.07068530782636</v>
       </c>
       <c r="N23">
-        <v>11.0115035606513</v>
+        <v>5.752460776718786</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>11.51785118664048</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.9259790127206</v>
+        <v>28.93613486147512</v>
       </c>
       <c r="C24">
-        <v>17.18271356352332</v>
+        <v>17.69516843523761</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.537574272291589</v>
+        <v>9.539548864634583</v>
       </c>
       <c r="F24">
-        <v>31.93542165397745</v>
+        <v>30.21794107858171</v>
       </c>
       <c r="G24">
-        <v>35.4249869949739</v>
+        <v>31.71600438265858</v>
       </c>
       <c r="H24">
-        <v>1.698503090539832</v>
+        <v>1.708729206225893</v>
       </c>
       <c r="I24">
-        <v>2.719542050873326</v>
+        <v>2.749805589540863</v>
       </c>
       <c r="J24">
-        <v>11.14403373912499</v>
+        <v>10.6829583717242</v>
       </c>
       <c r="K24">
-        <v>16.75859623286835</v>
+        <v>15.20284906008744</v>
       </c>
       <c r="L24">
-        <v>5.599182531729414</v>
+        <v>12.44257299444529</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.20597754795679</v>
       </c>
       <c r="N24">
-        <v>10.40693628191678</v>
+        <v>5.633411182843349</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>10.81187560257836</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.20869308781585</v>
+        <v>26.23751502078718</v>
       </c>
       <c r="C25">
-        <v>15.73596776400983</v>
+        <v>16.14913731673077</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.157248302626499</v>
+        <v>9.182555899815013</v>
       </c>
       <c r="F25">
-        <v>30.3027196495938</v>
+        <v>28.88853488585222</v>
       </c>
       <c r="G25">
-        <v>33.37092220698246</v>
+        <v>30.06193513699613</v>
       </c>
       <c r="H25">
-        <v>1.912747578630601</v>
+        <v>1.859336270012166</v>
       </c>
       <c r="I25">
-        <v>2.663048421859175</v>
+        <v>2.590797365271841</v>
       </c>
       <c r="J25">
-        <v>10.94811610957708</v>
+        <v>10.66026974420925</v>
       </c>
       <c r="K25">
-        <v>16.71409503136885</v>
+        <v>15.40880644486093</v>
       </c>
       <c r="L25">
-        <v>5.533112778388054</v>
+        <v>12.74854612416804</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.10172023763057</v>
       </c>
       <c r="N25">
-        <v>9.719724980570049</v>
+        <v>5.530595420970729</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>10.08127625712764</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
